--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_13_26.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>724005.3025009971</v>
+        <v>731509.4715654947</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3353618.875560213</v>
+        <v>3353618.875560212</v>
       </c>
     </row>
     <row r="8">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,22 +1889,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>49.17381009994776</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="T17" t="n">
-        <v>55.82857640775175</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="U17" t="n">
-        <v>55.82857640775175</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>55.82857640775175</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>49.17381009994773</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>49.17381009994773</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="G18" t="n">
-        <v>55.82857640775175</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>49.17381009994774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>55.82857640775175</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>55.82857640775175</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.82857640775175</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="D19" t="n">
-        <v>55.82857640775175</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>49.17381009994774</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2044,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="R19" t="n">
-        <v>55.82857640775175</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>49.17381009994773</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>70.19266936484378</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>221.6723096882149</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>327.7522584701349</v>
+      </c>
+      <c r="W20" t="n">
         <v>329.4434482790268</v>
       </c>
-      <c r="D20" t="n">
+      <c r="X20" t="n">
         <v>329.4434482790268</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>88.5640942832664</v>
-      </c>
-      <c r="S20" t="n">
-        <v>201.6096949609004</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>68.49675088507945</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.1695226499673</v>
       </c>
       <c r="H21" t="n">
-        <v>110.5550235428043</v>
+        <v>15.15575786319246</v>
       </c>
       <c r="I21" t="n">
-        <v>83.40603228580038</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>168.451299333726</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.4634087050382</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9299350735246</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>6.241127863913522</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>227.3223217658007</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>7.853794240677113</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="C23" t="n">
-        <v>290.1737892441667</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.50147955595196</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.6723096882149</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
     </row>
     <row r="24">
@@ -2403,7 +2403,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>96.20485417043375</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2412,10 +2412,10 @@
         <v>137.1695226499673</v>
       </c>
       <c r="H24" t="n">
-        <v>110.5550235428043</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>81.82066487993002</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.35491165495628</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>168.451299333726</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9299350735246</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>170.7344938056164</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>62.82895582409792</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>233.5634496297142</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>162.4233737859329</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>129.4416052671257</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>290.1737892441668</v>
       </c>
     </row>
     <row r="27">
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>139.1536790675898</v>
+        <v>22.57097253434694</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>168.451299333726</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>84.94797661150184</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>14.97879627761959</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>200.0061076115223</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>197.9388202234565</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2837,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>129.4416052671257</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>201.6096949609004</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>221.6723096882149</v>
       </c>
       <c r="U29" t="n">
-        <v>66.89362760695261</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,25 +2871,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>48.46165543938468</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.1695226499673</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>110.5550235428043</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>83.40603228580038</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>112.0357876954691</v>
       </c>
       <c r="T30" t="n">
-        <v>199.4634087050382</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9299350735246</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2934,7 +2934,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3010,10 +3010,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>233.5634496297142</v>
+        <v>7.853794240677141</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,25 +3029,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>92.23496902071037</v>
       </c>
       <c r="F32" t="n">
         <v>329.4434482790268</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>197.9388202234565</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>290.1737892441668</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,16 +3114,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>91.87883782542185</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.1695226499673</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>110.5550235428043</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>83.40603228580038</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>89.35491165495628</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>168.451299333726</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>48.21129159153841</v>
       </c>
       <c r="U33" t="n">
         <v>225.9299350735246</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>7.853794240677116</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>12.08898799481784</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>221.4744616348964</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3269,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>160.732183977041</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>290.2571271040595</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>129.4416052671257</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>201.6096949609004</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>169.16454849427</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.1695226499673</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.5550235428043</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>168.451299333726</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>211.9104055639176</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>170.7344938056164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>62.8289558240979</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>233.5634496297143</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3506,19 +3506,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>329.4434482790268</v>
       </c>
       <c r="E38" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>68.50147955595185</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>329.4434482790268</v>
+        <v>68.58481741584461</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>129.4416052671257</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>201.6096949609004</v>
       </c>
       <c r="T38" t="n">
         <v>221.6723096882149</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>126.6647874852969</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.1695226499673</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>98.01021699803408</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>83.40603228580038</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>89.35491165495628</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>14.97879627761959</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>227.3223217658007</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.241127863913581</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>273.6148718712751</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>240.9999791442189</v>
+        <v>251.3196373304354</v>
       </c>
       <c r="V41" t="n">
-        <v>273.614871871275</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>273.614871871275</v>
+        <v>273.6148718712751</v>
       </c>
       <c r="Y41" t="n">
-        <v>273.614871871275</v>
+        <v>263.2952136850586</v>
       </c>
     </row>
     <row r="42">
@@ -3825,19 +3825,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>147.0712315331853</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.1695226499673</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>110.5550235428043</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>83.40603228580038</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.4634087050382</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>121.0933208513184</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>12.08898799481784</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>221.4744616348964</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>12.08898799481785</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.46628611262014</v>
+        <v>60.85878753459163</v>
       </c>
       <c r="C17" t="n">
-        <v>4.46628611262014</v>
+        <v>60.85878753459163</v>
       </c>
       <c r="D17" t="n">
-        <v>4.46628611262014</v>
+        <v>60.85878753459163</v>
       </c>
       <c r="E17" t="n">
-        <v>4.46628611262014</v>
+        <v>60.85878753459163</v>
       </c>
       <c r="F17" t="n">
-        <v>4.46628611262014</v>
+        <v>60.85878753459163</v>
       </c>
       <c r="G17" t="n">
-        <v>4.46628611262014</v>
+        <v>60.85878753459163</v>
       </c>
       <c r="H17" t="n">
-        <v>4.46628611262014</v>
+        <v>60.85878753459163</v>
       </c>
       <c r="I17" t="n">
-        <v>4.46628611262014</v>
+        <v>4.466286112620142</v>
       </c>
       <c r="J17" t="n">
-        <v>19.96097985558175</v>
+        <v>19.96097985558176</v>
       </c>
       <c r="K17" t="n">
-        <v>32.62802858197832</v>
+        <v>75.23127049925603</v>
       </c>
       <c r="L17" t="n">
-        <v>32.62802858197832</v>
+        <v>75.23127049925603</v>
       </c>
       <c r="M17" t="n">
-        <v>87.89831922565256</v>
+        <v>87.89831922565259</v>
       </c>
       <c r="N17" t="n">
         <v>143.1686098693268</v>
@@ -5531,34 +5531,34 @@
         <v>143.1686098693268</v>
       </c>
       <c r="P17" t="n">
-        <v>198.438900513001</v>
+        <v>198.4389005130011</v>
       </c>
       <c r="Q17" t="n">
-        <v>223.314305631007</v>
+        <v>223.3143056310071</v>
       </c>
       <c r="R17" t="n">
-        <v>223.314305631007</v>
+        <v>173.6437903785346</v>
       </c>
       <c r="S17" t="n">
-        <v>223.314305631007</v>
+        <v>117.2512889565631</v>
       </c>
       <c r="T17" t="n">
-        <v>166.9218042090355</v>
+        <v>60.85878753459163</v>
       </c>
       <c r="U17" t="n">
-        <v>110.5293027870641</v>
+        <v>60.85878753459163</v>
       </c>
       <c r="V17" t="n">
-        <v>54.13680136509259</v>
+        <v>60.85878753459163</v>
       </c>
       <c r="W17" t="n">
-        <v>4.46628611262014</v>
+        <v>60.85878753459163</v>
       </c>
       <c r="X17" t="n">
-        <v>4.46628611262014</v>
+        <v>60.85878753459163</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.46628611262014</v>
+        <v>60.85878753459163</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>223.3143056310071</v>
+      </c>
+      <c r="C18" t="n">
+        <v>223.3143056310071</v>
+      </c>
+      <c r="D18" t="n">
+        <v>223.3143056310071</v>
+      </c>
+      <c r="E18" t="n">
+        <v>223.3143056310071</v>
+      </c>
+      <c r="F18" t="n">
+        <v>166.9218042090356</v>
+      </c>
+      <c r="G18" t="n">
         <v>110.5293027870641</v>
       </c>
-      <c r="C18" t="n">
-        <v>110.5293027870641</v>
-      </c>
-      <c r="D18" t="n">
-        <v>110.5293027870641</v>
-      </c>
-      <c r="E18" t="n">
-        <v>60.85878753459161</v>
-      </c>
-      <c r="F18" t="n">
-        <v>60.85878753459161</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4.46628611262014</v>
-      </c>
       <c r="H18" t="n">
-        <v>4.46628611262014</v>
+        <v>54.1368013650926</v>
       </c>
       <c r="I18" t="n">
-        <v>4.46628611262014</v>
+        <v>4.466286112620142</v>
       </c>
       <c r="J18" t="n">
-        <v>20.00143987364616</v>
+        <v>20.00143987364617</v>
       </c>
       <c r="K18" t="n">
-        <v>75.27173051732041</v>
+        <v>20.00143987364617</v>
       </c>
       <c r="L18" t="n">
-        <v>130.5420211609946</v>
+        <v>75.27173051732044</v>
       </c>
       <c r="M18" t="n">
-        <v>168.0440149873328</v>
+        <v>112.7737243436586</v>
       </c>
       <c r="N18" t="n">
         <v>168.0440149873328</v>
       </c>
       <c r="O18" t="n">
-        <v>223.314305631007</v>
+        <v>168.0440149873328</v>
       </c>
       <c r="P18" t="n">
-        <v>223.314305631007</v>
+        <v>223.3143056310071</v>
       </c>
       <c r="Q18" t="n">
-        <v>223.314305631007</v>
+        <v>223.3143056310071</v>
       </c>
       <c r="R18" t="n">
-        <v>223.314305631007</v>
+        <v>223.3143056310071</v>
       </c>
       <c r="S18" t="n">
-        <v>223.314305631007</v>
+        <v>223.3143056310071</v>
       </c>
       <c r="T18" t="n">
-        <v>223.314305631007</v>
+        <v>223.3143056310071</v>
       </c>
       <c r="U18" t="n">
-        <v>223.314305631007</v>
+        <v>223.3143056310071</v>
       </c>
       <c r="V18" t="n">
-        <v>223.314305631007</v>
+        <v>223.3143056310071</v>
       </c>
       <c r="W18" t="n">
-        <v>166.9218042090355</v>
+        <v>223.3143056310071</v>
       </c>
       <c r="X18" t="n">
-        <v>110.5293027870641</v>
+        <v>223.3143056310071</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.5293027870641</v>
+        <v>223.3143056310071</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.85878753459161</v>
+        <v>110.5293027870641</v>
       </c>
       <c r="C19" t="n">
-        <v>60.85878753459161</v>
+        <v>54.1368013650926</v>
       </c>
       <c r="D19" t="n">
-        <v>4.46628611262014</v>
+        <v>54.1368013650926</v>
       </c>
       <c r="E19" t="n">
-        <v>4.46628611262014</v>
+        <v>54.1368013650926</v>
       </c>
       <c r="F19" t="n">
-        <v>4.46628611262014</v>
+        <v>54.1368013650926</v>
       </c>
       <c r="G19" t="n">
-        <v>4.46628611262014</v>
+        <v>54.1368013650926</v>
       </c>
       <c r="H19" t="n">
-        <v>4.46628611262014</v>
+        <v>54.1368013650926</v>
       </c>
       <c r="I19" t="n">
-        <v>4.46628611262014</v>
+        <v>4.466286112620142</v>
       </c>
       <c r="J19" t="n">
-        <v>4.46628611262014</v>
+        <v>4.466286112620142</v>
       </c>
       <c r="K19" t="n">
-        <v>4.46628611262014</v>
+        <v>4.466286112620142</v>
       </c>
       <c r="L19" t="n">
         <v>53.25060294733029</v>
       </c>
       <c r="M19" t="n">
-        <v>108.5208935910045</v>
+        <v>108.5208935910046</v>
       </c>
       <c r="N19" t="n">
         <v>163.7911842346788</v>
       </c>
       <c r="O19" t="n">
-        <v>208.542503337852</v>
+        <v>208.5425033378521</v>
       </c>
       <c r="P19" t="n">
-        <v>223.314305631007</v>
+        <v>223.3143056310071</v>
       </c>
       <c r="Q19" t="n">
-        <v>223.314305631007</v>
+        <v>166.9218042090356</v>
       </c>
       <c r="R19" t="n">
-        <v>166.9218042090355</v>
+        <v>166.9218042090356</v>
       </c>
       <c r="S19" t="n">
-        <v>166.9218042090355</v>
+        <v>166.9218042090356</v>
       </c>
       <c r="T19" t="n">
-        <v>166.9218042090355</v>
+        <v>110.5293027870641</v>
       </c>
       <c r="U19" t="n">
-        <v>166.9218042090355</v>
+        <v>110.5293027870641</v>
       </c>
       <c r="V19" t="n">
-        <v>166.9218042090355</v>
+        <v>110.5293027870641</v>
       </c>
       <c r="W19" t="n">
-        <v>117.2512889565631</v>
+        <v>110.5293027870641</v>
       </c>
       <c r="X19" t="n">
-        <v>117.2512889565631</v>
+        <v>110.5293027870641</v>
       </c>
       <c r="Y19" t="n">
-        <v>117.2512889565631</v>
+        <v>110.5293027870641</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>691.8977956179318</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="C20" t="n">
-        <v>359.126635740127</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="D20" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="E20" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="F20" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="G20" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="H20" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="I20" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J20" t="n">
-        <v>41.85016960528375</v>
+        <v>41.85016960528378</v>
       </c>
       <c r="K20" t="n">
-        <v>185.8175031886682</v>
+        <v>185.8175031886683</v>
       </c>
       <c r="L20" t="n">
-        <v>416.6983385035395</v>
+        <v>416.6983385035397</v>
       </c>
       <c r="M20" t="n">
-        <v>690.204299238666</v>
+        <v>690.2042992386663</v>
       </c>
       <c r="N20" t="n">
-        <v>953.5038748143522</v>
+        <v>953.5038748143527</v>
       </c>
       <c r="O20" t="n">
         <v>1156.942559902893</v>
@@ -5774,28 +5774,28 @@
         <v>1317.773793116107</v>
       </c>
       <c r="R20" t="n">
-        <v>1228.315112021899</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="S20" t="n">
-        <v>1024.668955495737</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="T20" t="n">
-        <v>1024.668955495737</v>
+        <v>1093.862369188618</v>
       </c>
       <c r="U20" t="n">
-        <v>1024.668955495737</v>
+        <v>1093.862369188618</v>
       </c>
       <c r="V20" t="n">
-        <v>1024.668955495737</v>
+        <v>762.7994818450469</v>
       </c>
       <c r="W20" t="n">
-        <v>1024.668955495737</v>
+        <v>430.028321967242</v>
       </c>
       <c r="X20" t="n">
-        <v>1024.668955495737</v>
+        <v>97.25716208943709</v>
       </c>
       <c r="Y20" t="n">
-        <v>691.8977956179318</v>
+        <v>97.25716208943709</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>430.0194449165155</v>
+        <v>485.9914085511551</v>
       </c>
       <c r="C21" t="n">
-        <v>430.0194449165155</v>
+        <v>485.9914085511551</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0194449165155</v>
+        <v>485.9914085511551</v>
       </c>
       <c r="E21" t="n">
-        <v>430.0194449165155</v>
+        <v>326.7539535456996</v>
       </c>
       <c r="F21" t="n">
-        <v>360.8308076588595</v>
+        <v>180.2193955725845</v>
       </c>
       <c r="G21" t="n">
-        <v>222.2757342750542</v>
+        <v>41.66432218877918</v>
       </c>
       <c r="H21" t="n">
-        <v>110.6039933227266</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="I21" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J21" t="n">
-        <v>26.35547586232214</v>
+        <v>41.89062962334818</v>
       </c>
       <c r="K21" t="n">
-        <v>26.35547586232214</v>
+        <v>41.89062962334818</v>
       </c>
       <c r="L21" t="n">
-        <v>160.2020626740219</v>
+        <v>68.81935964183481</v>
       </c>
       <c r="M21" t="n">
-        <v>486.3510764702584</v>
+        <v>394.9683734380714</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5000902664949</v>
+        <v>721.1173872343079</v>
       </c>
       <c r="O21" t="n">
-        <v>1102.237248018492</v>
+        <v>1010.854544986305</v>
       </c>
       <c r="P21" t="n">
-        <v>1317.773793116107</v>
+        <v>1226.39109008392</v>
       </c>
       <c r="Q21" t="n">
         <v>1317.773793116107</v>
@@ -5856,25 +5856,25 @@
         <v>1317.773793116107</v>
       </c>
       <c r="S21" t="n">
-        <v>1147.620965506283</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="T21" t="n">
-        <v>1147.620965506283</v>
+        <v>1116.295602504958</v>
       </c>
       <c r="U21" t="n">
-        <v>919.4089098764599</v>
+        <v>1116.295602504958</v>
       </c>
       <c r="V21" t="n">
-        <v>684.2568016447171</v>
+        <v>1116.295602504958</v>
       </c>
       <c r="W21" t="n">
-        <v>430.0194449165155</v>
+        <v>862.0582457767559</v>
       </c>
       <c r="X21" t="n">
-        <v>430.0194449165155</v>
+        <v>654.2067455712231</v>
       </c>
       <c r="Y21" t="n">
-        <v>430.0194449165155</v>
+        <v>654.2067455712231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="C22" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="D22" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="E22" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="F22" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="G22" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="H22" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="I22" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J22" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="K22" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="L22" t="n">
         <v>75.13979269703229</v>
@@ -5935,25 +5935,25 @@
         <v>262.2781522559729</v>
       </c>
       <c r="S22" t="n">
-        <v>255.9739826964643</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="T22" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="U22" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="V22" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="W22" t="n">
-        <v>26.35547586232214</v>
+        <v>254.3450267603395</v>
       </c>
       <c r="X22" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>985.0026332383022</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="C23" t="n">
-        <v>691.8977956179318</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="D23" t="n">
-        <v>359.126635740127</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="E23" t="n">
-        <v>359.126635740127</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="F23" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="G23" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="H23" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="I23" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J23" t="n">
-        <v>41.85016960528375</v>
+        <v>41.85016960528377</v>
       </c>
       <c r="K23" t="n">
         <v>185.8175031886683</v>
@@ -6011,28 +6011,28 @@
         <v>1317.773793116107</v>
       </c>
       <c r="R23" t="n">
-        <v>1317.773793116107</v>
+        <v>1248.580379423227</v>
       </c>
       <c r="S23" t="n">
-        <v>1317.773793116107</v>
+        <v>1248.580379423227</v>
       </c>
       <c r="T23" t="n">
-        <v>1317.773793116107</v>
+        <v>1024.668955495737</v>
       </c>
       <c r="U23" t="n">
-        <v>1317.773793116107</v>
+        <v>1024.668955495737</v>
       </c>
       <c r="V23" t="n">
-        <v>1317.773793116107</v>
+        <v>1024.668955495737</v>
       </c>
       <c r="W23" t="n">
-        <v>985.0026332383022</v>
+        <v>691.8977956179319</v>
       </c>
       <c r="X23" t="n">
-        <v>985.0026332383022</v>
+        <v>691.8977956179319</v>
       </c>
       <c r="Y23" t="n">
-        <v>985.0026332383022</v>
+        <v>359.126635740127</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>829.151423356302</v>
+        <v>732.0091665357963</v>
       </c>
       <c r="C24" t="n">
-        <v>654.698394075175</v>
+        <v>557.5561372546694</v>
       </c>
       <c r="D24" t="n">
-        <v>505.7639844139237</v>
+        <v>408.6217275934181</v>
       </c>
       <c r="E24" t="n">
-        <v>505.7639844139237</v>
+        <v>311.4451072192426</v>
       </c>
       <c r="F24" t="n">
-        <v>359.2294264408087</v>
+        <v>164.9105492461275</v>
       </c>
       <c r="G24" t="n">
-        <v>220.6743530570033</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="H24" t="n">
-        <v>109.0026121046757</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="I24" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J24" t="n">
-        <v>41.89062962334816</v>
+        <v>41.89062962334818</v>
       </c>
       <c r="K24" t="n">
-        <v>41.89062962334816</v>
+        <v>195.0635249186371</v>
       </c>
       <c r="L24" t="n">
-        <v>309.2548863440219</v>
+        <v>462.4277816393109</v>
       </c>
       <c r="M24" t="n">
-        <v>635.4039001402584</v>
+        <v>788.5767954355474</v>
       </c>
       <c r="N24" t="n">
-        <v>961.5529139364949</v>
+        <v>1102.237248018492</v>
       </c>
       <c r="O24" t="n">
-        <v>1226.39109008392</v>
+        <v>1102.237248018492</v>
       </c>
       <c r="P24" t="n">
-        <v>1226.39109008392</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="Q24" t="n">
         <v>1317.773793116107</v>
       </c>
       <c r="R24" t="n">
-        <v>1227.516306595949</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="S24" t="n">
-        <v>1057.363478986125</v>
+        <v>1147.620965506283</v>
       </c>
       <c r="T24" t="n">
-        <v>1057.363478986125</v>
+        <v>1147.620965506283</v>
       </c>
       <c r="U24" t="n">
-        <v>829.151423356302</v>
+        <v>1147.620965506283</v>
       </c>
       <c r="V24" t="n">
-        <v>829.151423356302</v>
+        <v>1147.620965506283</v>
       </c>
       <c r="W24" t="n">
-        <v>829.151423356302</v>
+        <v>1147.620965506283</v>
       </c>
       <c r="X24" t="n">
-        <v>829.151423356302</v>
+        <v>939.7694653007502</v>
       </c>
       <c r="Y24" t="n">
-        <v>829.151423356302</v>
+        <v>732.0091665357963</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="C25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="D25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="E25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="F25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="G25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="H25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="I25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="K25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="L25" t="n">
         <v>75.13979269703229</v>
@@ -6169,28 +6169,28 @@
         <v>262.2781522559729</v>
       </c>
       <c r="R25" t="n">
-        <v>262.2781522559729</v>
+        <v>89.81906760383521</v>
       </c>
       <c r="S25" t="n">
-        <v>262.2781522559729</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="T25" t="n">
-        <v>262.2781522559729</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="U25" t="n">
-        <v>262.2781522559729</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="V25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="W25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="X25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>855.9618095431166</v>
+        <v>691.8977956179319</v>
       </c>
       <c r="C26" t="n">
-        <v>855.9618095431166</v>
+        <v>359.126635740127</v>
       </c>
       <c r="D26" t="n">
-        <v>855.9618095431166</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="E26" t="n">
-        <v>855.9618095431166</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="F26" t="n">
-        <v>855.9618095431166</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="G26" t="n">
-        <v>523.1906496653118</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="H26" t="n">
-        <v>190.4194897875069</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="I26" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J26" t="n">
-        <v>41.85016960528375</v>
+        <v>41.85016960528377</v>
       </c>
       <c r="K26" t="n">
         <v>185.8175031886682</v>
       </c>
       <c r="L26" t="n">
-        <v>416.6983385035395</v>
+        <v>416.6983385035396</v>
       </c>
       <c r="M26" t="n">
-        <v>690.204299238666</v>
+        <v>690.2042992386661</v>
       </c>
       <c r="N26" t="n">
-        <v>953.5038748143522</v>
+        <v>953.5038748143525</v>
       </c>
       <c r="O26" t="n">
         <v>1156.942559902893</v>
@@ -6248,28 +6248,28 @@
         <v>1317.773793116107</v>
       </c>
       <c r="R26" t="n">
-        <v>1187.024696886687</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="S26" t="n">
-        <v>1187.024696886687</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="T26" t="n">
-        <v>1187.024696886687</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="U26" t="n">
-        <v>1187.024696886687</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="V26" t="n">
-        <v>855.9618095431166</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="W26" t="n">
-        <v>855.9618095431166</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="X26" t="n">
-        <v>855.9618095431166</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="Y26" t="n">
-        <v>855.9618095431166</v>
+        <v>1024.668955495737</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>647.9246374174188</v>
+        <v>704.6173570690075</v>
       </c>
       <c r="C27" t="n">
-        <v>647.9246374174188</v>
+        <v>530.1643277878806</v>
       </c>
       <c r="D27" t="n">
-        <v>647.9246374174188</v>
+        <v>530.1643277878806</v>
       </c>
       <c r="E27" t="n">
         <v>507.3653656319746</v>
@@ -6300,25 +6300,25 @@
         <v>110.6039933227266</v>
       </c>
       <c r="I27" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J27" t="n">
-        <v>26.35547586232214</v>
+        <v>41.89062962334818</v>
       </c>
       <c r="K27" t="n">
-        <v>26.35547586232214</v>
+        <v>195.0635249186371</v>
       </c>
       <c r="L27" t="n">
-        <v>68.81935964183492</v>
+        <v>462.4277816393109</v>
       </c>
       <c r="M27" t="n">
-        <v>394.9683734380714</v>
+        <v>788.5767954355474</v>
       </c>
       <c r="N27" t="n">
-        <v>721.1173872343079</v>
+        <v>1114.725809231784</v>
       </c>
       <c r="O27" t="n">
-        <v>1010.854544986305</v>
+        <v>1226.39109008392</v>
       </c>
       <c r="P27" t="n">
         <v>1226.39109008392</v>
@@ -6330,25 +6330,25 @@
         <v>1317.773793116107</v>
       </c>
       <c r="S27" t="n">
-        <v>1317.773793116107</v>
+        <v>1147.620965506283</v>
       </c>
       <c r="T27" t="n">
-        <v>1317.773793116107</v>
+        <v>1147.620965506283</v>
       </c>
       <c r="U27" t="n">
-        <v>1317.773793116107</v>
+        <v>1147.620965506283</v>
       </c>
       <c r="V27" t="n">
-        <v>1317.773793116107</v>
+        <v>912.4688572745404</v>
       </c>
       <c r="W27" t="n">
-        <v>1063.536436387905</v>
+        <v>912.4688572745404</v>
       </c>
       <c r="X27" t="n">
-        <v>855.6849361823727</v>
+        <v>704.6173570690075</v>
       </c>
       <c r="Y27" t="n">
-        <v>647.9246374174188</v>
+        <v>704.6173570690075</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>262.2781522559729</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="C28" t="n">
-        <v>176.4721152746579</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="D28" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="E28" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="F28" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="G28" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="H28" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="I28" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="J28" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="K28" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="L28" t="n">
-        <v>75.13979269703229</v>
+        <v>1130.635433557167</v>
       </c>
       <c r="M28" t="n">
-        <v>136.9651378277962</v>
+        <v>1192.460778687931</v>
       </c>
       <c r="N28" t="n">
-        <v>202.7550308596446</v>
+        <v>1258.250671719779</v>
       </c>
       <c r="O28" t="n">
-        <v>247.5063499628179</v>
+        <v>1303.001990822952</v>
       </c>
       <c r="P28" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="Q28" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="R28" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="S28" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="T28" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="U28" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="V28" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="X28" t="n">
-        <v>262.2781522559729</v>
+        <v>1302.643695865987</v>
       </c>
       <c r="Y28" t="n">
-        <v>262.2781522559729</v>
+        <v>1081.851116722456</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>359.126635740127</v>
+        <v>428.3200494330078</v>
       </c>
       <c r="C29" t="n">
-        <v>359.126635740127</v>
+        <v>428.3200494330078</v>
       </c>
       <c r="D29" t="n">
-        <v>359.126635740127</v>
+        <v>428.3200494330078</v>
       </c>
       <c r="E29" t="n">
-        <v>26.35547586232214</v>
+        <v>428.3200494330078</v>
       </c>
       <c r="F29" t="n">
-        <v>26.35547586232214</v>
+        <v>428.3200494330078</v>
       </c>
       <c r="G29" t="n">
-        <v>26.35547586232214</v>
+        <v>226.2936781082378</v>
       </c>
       <c r="H29" t="n">
-        <v>26.35547586232214</v>
+        <v>226.2936781082378</v>
       </c>
       <c r="I29" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J29" t="n">
-        <v>41.85016960528375</v>
+        <v>41.85016960528367</v>
       </c>
       <c r="K29" t="n">
-        <v>185.8175031886682</v>
+        <v>185.8175031886681</v>
       </c>
       <c r="L29" t="n">
         <v>416.6983385035395</v>
       </c>
       <c r="M29" t="n">
-        <v>690.204299238666</v>
+        <v>690.2042992386661</v>
       </c>
       <c r="N29" t="n">
-        <v>953.5038748143525</v>
+        <v>953.5038748143526</v>
       </c>
       <c r="O29" t="n">
         <v>1156.942559902893</v>
@@ -6485,28 +6485,28 @@
         <v>1317.773793116107</v>
       </c>
       <c r="R29" t="n">
-        <v>1187.024696886687</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="S29" t="n">
-        <v>983.3785403605252</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="T29" t="n">
-        <v>759.4671164330355</v>
+        <v>1093.862369188618</v>
       </c>
       <c r="U29" t="n">
-        <v>691.8977956179318</v>
+        <v>1093.862369188618</v>
       </c>
       <c r="V29" t="n">
-        <v>691.8977956179318</v>
+        <v>1093.862369188618</v>
       </c>
       <c r="W29" t="n">
-        <v>691.8977956179318</v>
+        <v>761.0912093108127</v>
       </c>
       <c r="X29" t="n">
-        <v>691.8977956179318</v>
+        <v>428.3200494330078</v>
       </c>
       <c r="Y29" t="n">
-        <v>691.8977956179318</v>
+        <v>428.3200494330078</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>398.69408191519</v>
+        <v>507.3653656319746</v>
       </c>
       <c r="C30" t="n">
-        <v>224.241052634063</v>
+        <v>507.3653656319746</v>
       </c>
       <c r="D30" t="n">
-        <v>75.30664297281172</v>
+        <v>507.3653656319746</v>
       </c>
       <c r="E30" t="n">
-        <v>26.35547586232214</v>
+        <v>507.3653656319746</v>
       </c>
       <c r="F30" t="n">
-        <v>26.35547586232214</v>
+        <v>360.8308076588595</v>
       </c>
       <c r="G30" t="n">
-        <v>26.35547586232214</v>
+        <v>222.2757342750542</v>
       </c>
       <c r="H30" t="n">
-        <v>26.35547586232214</v>
+        <v>110.6039933227266</v>
       </c>
       <c r="I30" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J30" t="n">
-        <v>41.89062962334817</v>
+        <v>41.89062962334818</v>
       </c>
       <c r="K30" t="n">
-        <v>108.3743510509635</v>
+        <v>41.89062962334818</v>
       </c>
       <c r="L30" t="n">
-        <v>375.7386077716373</v>
+        <v>68.81935964183481</v>
       </c>
       <c r="M30" t="n">
-        <v>701.8876215678738</v>
+        <v>394.9683734380714</v>
       </c>
       <c r="N30" t="n">
-        <v>1028.03663536411</v>
+        <v>721.1173872343079</v>
       </c>
       <c r="O30" t="n">
-        <v>1317.773793116107</v>
+        <v>1010.854544986305</v>
       </c>
       <c r="P30" t="n">
-        <v>1317.773793116107</v>
+        <v>1226.39109008392</v>
       </c>
       <c r="Q30" t="n">
         <v>1317.773793116107</v>
@@ -6567,25 +6567,25 @@
         <v>1317.773793116107</v>
       </c>
       <c r="S30" t="n">
-        <v>1317.773793116107</v>
+        <v>1204.606330797452</v>
       </c>
       <c r="T30" t="n">
-        <v>1116.295602504957</v>
+        <v>1204.606330797452</v>
       </c>
       <c r="U30" t="n">
-        <v>888.0835468751344</v>
+        <v>1204.606330797452</v>
       </c>
       <c r="V30" t="n">
-        <v>652.9314386433916</v>
+        <v>969.454222565709</v>
       </c>
       <c r="W30" t="n">
-        <v>398.69408191519</v>
+        <v>715.2168658375074</v>
       </c>
       <c r="X30" t="n">
-        <v>398.69408191519</v>
+        <v>507.3653656319746</v>
       </c>
       <c r="Y30" t="n">
-        <v>398.69408191519</v>
+        <v>507.3653656319746</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="C31" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="D31" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="E31" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="F31" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="G31" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="H31" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="I31" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="J31" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="K31" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="L31" t="n">
-        <v>75.13979269703229</v>
+        <v>1130.635433557167</v>
       </c>
       <c r="M31" t="n">
-        <v>136.9651378277962</v>
+        <v>1192.460778687931</v>
       </c>
       <c r="N31" t="n">
-        <v>202.7550308596446</v>
+        <v>1258.250671719779</v>
       </c>
       <c r="O31" t="n">
-        <v>247.5063499628179</v>
+        <v>1303.001990822952</v>
       </c>
       <c r="P31" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="Q31" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="R31" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="S31" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="T31" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="U31" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="V31" t="n">
-        <v>262.2781522559729</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="W31" t="n">
-        <v>26.35547586232214</v>
+        <v>1309.840667620474</v>
       </c>
       <c r="X31" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.35547586232214</v>
+        <v>1081.851116722456</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>691.8977956179318</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="C32" t="n">
-        <v>359.126635740127</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="D32" t="n">
-        <v>359.126635740127</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="E32" t="n">
-        <v>359.126635740127</v>
+        <v>1224.607157741652</v>
       </c>
       <c r="F32" t="n">
-        <v>26.35547586232214</v>
+        <v>891.8359978638475</v>
       </c>
       <c r="G32" t="n">
-        <v>26.35547586232214</v>
+        <v>559.0648379860427</v>
       </c>
       <c r="H32" t="n">
-        <v>26.35547586232214</v>
+        <v>226.2936781082378</v>
       </c>
       <c r="I32" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J32" t="n">
-        <v>41.85016960528378</v>
+        <v>41.85016960528377</v>
       </c>
       <c r="K32" t="n">
         <v>185.8175031886682</v>
@@ -6707,10 +6707,10 @@
         <v>416.6983385035396</v>
       </c>
       <c r="M32" t="n">
-        <v>690.204299238666</v>
+        <v>690.2042992386661</v>
       </c>
       <c r="N32" t="n">
-        <v>953.5038748143523</v>
+        <v>953.5038748143525</v>
       </c>
       <c r="O32" t="n">
         <v>1156.942559902893</v>
@@ -6734,16 +6734,16 @@
         <v>1317.773793116107</v>
       </c>
       <c r="V32" t="n">
-        <v>1024.668955495737</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="W32" t="n">
-        <v>1024.668955495737</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="X32" t="n">
-        <v>1024.668955495737</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="Y32" t="n">
-        <v>691.8977956179318</v>
+        <v>1317.773793116107</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>600.1722725263401</v>
+        <v>110.6039933227266</v>
       </c>
       <c r="C33" t="n">
-        <v>600.1722725263401</v>
+        <v>110.6039933227266</v>
       </c>
       <c r="D33" t="n">
-        <v>600.1722725263401</v>
+        <v>110.6039933227266</v>
       </c>
       <c r="E33" t="n">
-        <v>507.3653656319746</v>
+        <v>110.6039933227266</v>
       </c>
       <c r="F33" t="n">
-        <v>360.8308076588595</v>
+        <v>110.6039933227266</v>
       </c>
       <c r="G33" t="n">
-        <v>222.2757342750542</v>
+        <v>110.6039933227266</v>
       </c>
       <c r="H33" t="n">
         <v>110.6039933227266</v>
       </c>
       <c r="I33" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J33" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="K33" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="L33" t="n">
-        <v>284.3559047394503</v>
+        <v>293.7197325829959</v>
       </c>
       <c r="M33" t="n">
-        <v>610.5049185356868</v>
+        <v>486.3510764702586</v>
       </c>
       <c r="N33" t="n">
-        <v>936.6539323319232</v>
+        <v>812.5000902664951</v>
       </c>
       <c r="O33" t="n">
-        <v>1226.39109008392</v>
+        <v>1102.237248018492</v>
       </c>
       <c r="P33" t="n">
-        <v>1226.39109008392</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="Q33" t="n">
         <v>1317.773793116107</v>
       </c>
       <c r="R33" t="n">
-        <v>1317.773793116107</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="S33" t="n">
-        <v>1317.773793116107</v>
+        <v>1057.363478986125</v>
       </c>
       <c r="T33" t="n">
-        <v>1317.773793116107</v>
+        <v>1008.665204651238</v>
       </c>
       <c r="U33" t="n">
-        <v>1089.561737486284</v>
+        <v>780.4531490214149</v>
       </c>
       <c r="V33" t="n">
-        <v>854.4096292545416</v>
+        <v>780.4531490214149</v>
       </c>
       <c r="W33" t="n">
-        <v>600.1722725263401</v>
+        <v>526.2157922932133</v>
       </c>
       <c r="X33" t="n">
-        <v>600.1722725263401</v>
+        <v>318.3642920876805</v>
       </c>
       <c r="Y33" t="n">
-        <v>600.1722725263401</v>
+        <v>110.6039933227266</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26.35547586232214</v>
+        <v>34.2886013579556</v>
       </c>
       <c r="C34" t="n">
-        <v>26.35547586232214</v>
+        <v>34.2886013579556</v>
       </c>
       <c r="D34" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="E34" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="F34" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="G34" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="H34" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="I34" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J34" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="K34" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="L34" t="n">
         <v>75.13979269703229</v>
@@ -6880,28 +6880,28 @@
         <v>262.2781522559729</v>
       </c>
       <c r="R34" t="n">
-        <v>250.0670532713084</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="S34" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="T34" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="U34" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="V34" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="W34" t="n">
-        <v>26.35547586232214</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="X34" t="n">
-        <v>26.35547586232214</v>
+        <v>34.2886013579556</v>
       </c>
       <c r="Y34" t="n">
-        <v>26.35547586232214</v>
+        <v>34.2886013579556</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6911,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>188.7112172532727</v>
+        <v>652.3156530169548</v>
       </c>
       <c r="C35" t="n">
-        <v>188.7112172532727</v>
+        <v>652.3156530169548</v>
       </c>
       <c r="D35" t="n">
-        <v>26.35547586232214</v>
+        <v>652.3156530169548</v>
       </c>
       <c r="E35" t="n">
-        <v>26.35547586232214</v>
+        <v>319.5444931391499</v>
       </c>
       <c r="F35" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="G35" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="H35" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="I35" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J35" t="n">
-        <v>41.85016960528375</v>
+        <v>41.85016960528377</v>
       </c>
       <c r="K35" t="n">
-        <v>185.8175031886683</v>
+        <v>185.8175031886682</v>
       </c>
       <c r="L35" t="n">
-        <v>416.6983385035397</v>
+        <v>416.6983385035396</v>
       </c>
       <c r="M35" t="n">
-        <v>690.2042992386662</v>
+        <v>690.2042992386661</v>
       </c>
       <c r="N35" t="n">
         <v>953.5038748143525</v>
@@ -6962,25 +6962,25 @@
         <v>1187.024696886687</v>
       </c>
       <c r="S35" t="n">
-        <v>1187.024696886687</v>
+        <v>983.3785403605254</v>
       </c>
       <c r="T35" t="n">
-        <v>1187.024696886687</v>
+        <v>983.3785403605254</v>
       </c>
       <c r="U35" t="n">
-        <v>1187.024696886687</v>
+        <v>983.3785403605254</v>
       </c>
       <c r="V35" t="n">
-        <v>1187.024696886687</v>
+        <v>652.3156530169548</v>
       </c>
       <c r="W35" t="n">
-        <v>854.2535370088824</v>
+        <v>652.3156530169548</v>
       </c>
       <c r="X35" t="n">
-        <v>521.4823771310776</v>
+        <v>652.3156530169548</v>
       </c>
       <c r="Y35" t="n">
-        <v>188.7112172532727</v>
+        <v>652.3156530169548</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>902.1619941456204</v>
+        <v>349.7429148047004</v>
       </c>
       <c r="C36" t="n">
-        <v>731.288712838277</v>
+        <v>175.2898855235734</v>
       </c>
       <c r="D36" t="n">
-        <v>582.3543031770257</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="E36" t="n">
-        <v>423.1168481715702</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="F36" t="n">
-        <v>276.5822901984551</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="G36" t="n">
-        <v>138.0272168146497</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="H36" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="I36" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J36" t="n">
-        <v>41.89062962334817</v>
+        <v>41.89062962334818</v>
       </c>
       <c r="K36" t="n">
-        <v>41.89062962334817</v>
+        <v>195.0635249186371</v>
       </c>
       <c r="L36" t="n">
-        <v>68.81935964183492</v>
+        <v>462.4277816393109</v>
       </c>
       <c r="M36" t="n">
-        <v>394.9683734380714</v>
+        <v>788.5767954355474</v>
       </c>
       <c r="N36" t="n">
-        <v>721.1173872343079</v>
+        <v>1114.725809231784</v>
       </c>
       <c r="O36" t="n">
-        <v>1010.854544986305</v>
+        <v>1226.39109008392</v>
       </c>
       <c r="P36" t="n">
         <v>1226.39109008392</v>
@@ -7041,25 +7041,25 @@
         <v>1317.773793116107</v>
       </c>
       <c r="S36" t="n">
-        <v>1317.773793116107</v>
+        <v>1147.620965506283</v>
       </c>
       <c r="T36" t="n">
-        <v>1317.773793116107</v>
+        <v>1147.620965506283</v>
       </c>
       <c r="U36" t="n">
-        <v>1317.773793116107</v>
+        <v>1147.620965506283</v>
       </c>
       <c r="V36" t="n">
-        <v>1317.773793116107</v>
+        <v>1147.620965506283</v>
       </c>
       <c r="W36" t="n">
-        <v>1317.773793116107</v>
+        <v>933.5700507952552</v>
       </c>
       <c r="X36" t="n">
-        <v>1109.922292910574</v>
+        <v>725.7185505897223</v>
       </c>
       <c r="Y36" t="n">
-        <v>902.1619941456204</v>
+        <v>517.9582518247685</v>
       </c>
     </row>
     <row r="37">
@@ -7099,10 +7099,10 @@
         <v>1081.851116722456</v>
       </c>
       <c r="L37" t="n">
-        <v>1130.635433557166</v>
+        <v>1130.635433557167</v>
       </c>
       <c r="M37" t="n">
-        <v>1192.46077868793</v>
+        <v>1192.460778687931</v>
       </c>
       <c r="N37" t="n">
         <v>1258.250671719779</v>
@@ -7117,16 +7117,16 @@
         <v>1317.773793116107</v>
       </c>
       <c r="R37" t="n">
-        <v>1145.314708463969</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="S37" t="n">
-        <v>1081.851116722456</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="T37" t="n">
-        <v>1081.851116722456</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="U37" t="n">
-        <v>1081.851116722456</v>
+        <v>1317.773793116107</v>
       </c>
       <c r="V37" t="n">
         <v>1081.851116722456</v>
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1093.862369188617</v>
+        <v>428.404229089465</v>
       </c>
       <c r="C38" t="n">
-        <v>1093.862369188617</v>
+        <v>428.404229089465</v>
       </c>
       <c r="D38" t="n">
-        <v>1093.862369188617</v>
+        <v>95.63306921166014</v>
       </c>
       <c r="E38" t="n">
-        <v>761.0912093108125</v>
+        <v>95.63306921166014</v>
       </c>
       <c r="F38" t="n">
-        <v>691.8977956179318</v>
+        <v>95.63306921166014</v>
       </c>
       <c r="G38" t="n">
-        <v>359.126635740127</v>
+        <v>95.63306921166014</v>
       </c>
       <c r="H38" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="I38" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J38" t="n">
-        <v>41.85016960528375</v>
+        <v>41.85016960528377</v>
       </c>
       <c r="K38" t="n">
-        <v>185.8175031886683</v>
+        <v>185.8175031886682</v>
       </c>
       <c r="L38" t="n">
-        <v>416.6983385035397</v>
+        <v>416.6983385035396</v>
       </c>
       <c r="M38" t="n">
-        <v>690.2042992386662</v>
+        <v>690.2042992386661</v>
       </c>
       <c r="N38" t="n">
         <v>953.5038748143525</v>
@@ -7196,28 +7196,28 @@
         <v>1317.773793116107</v>
       </c>
       <c r="R38" t="n">
-        <v>1317.773793116107</v>
+        <v>1187.024696886687</v>
       </c>
       <c r="S38" t="n">
-        <v>1317.773793116107</v>
+        <v>983.3785403605254</v>
       </c>
       <c r="T38" t="n">
-        <v>1093.862369188617</v>
+        <v>759.4671164330357</v>
       </c>
       <c r="U38" t="n">
-        <v>1093.862369188617</v>
+        <v>759.4671164330357</v>
       </c>
       <c r="V38" t="n">
-        <v>1093.862369188617</v>
+        <v>428.404229089465</v>
       </c>
       <c r="W38" t="n">
-        <v>1093.862369188617</v>
+        <v>428.404229089465</v>
       </c>
       <c r="X38" t="n">
-        <v>1093.862369188617</v>
+        <v>428.404229089465</v>
       </c>
       <c r="Y38" t="n">
-        <v>1093.862369188617</v>
+        <v>428.404229089465</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>828.3843281561628</v>
+        <v>154.2997056454503</v>
       </c>
       <c r="C39" t="n">
-        <v>653.9312988750358</v>
+        <v>154.2997056454503</v>
       </c>
       <c r="D39" t="n">
-        <v>653.9312988750358</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="E39" t="n">
-        <v>494.6938438695803</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1592858964653</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="G39" t="n">
-        <v>209.60421251266</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="H39" t="n">
-        <v>110.6039933227266</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="I39" t="n">
-        <v>26.35547586232214</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J39" t="n">
-        <v>26.35547586232214</v>
+        <v>41.89062962334818</v>
       </c>
       <c r="K39" t="n">
-        <v>108.3743510509635</v>
+        <v>195.0635249186371</v>
       </c>
       <c r="L39" t="n">
-        <v>375.7386077716373</v>
+        <v>394.9683734380714</v>
       </c>
       <c r="M39" t="n">
-        <v>701.8876215678738</v>
+        <v>394.9683734380714</v>
       </c>
       <c r="N39" t="n">
-        <v>1028.03663536411</v>
+        <v>721.1173872343079</v>
       </c>
       <c r="O39" t="n">
-        <v>1317.773793116107</v>
+        <v>1010.854544986305</v>
       </c>
       <c r="P39" t="n">
-        <v>1317.773793116107</v>
+        <v>1226.39109008392</v>
       </c>
       <c r="Q39" t="n">
         <v>1317.773793116107</v>
       </c>
       <c r="R39" t="n">
-        <v>1317.773793116107</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="S39" t="n">
-        <v>1317.773793116107</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="T39" t="n">
-        <v>1317.773793116107</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="U39" t="n">
-        <v>1317.773793116107</v>
+        <v>1227.516306595949</v>
       </c>
       <c r="V39" t="n">
-        <v>1082.621684884364</v>
+        <v>992.3641983642067</v>
       </c>
       <c r="W39" t="n">
-        <v>828.3843281561628</v>
+        <v>738.1268416360051</v>
       </c>
       <c r="X39" t="n">
-        <v>828.3843281561628</v>
+        <v>530.2753414304723</v>
       </c>
       <c r="Y39" t="n">
-        <v>828.3843281561628</v>
+        <v>322.5150426655184</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1081.851116722456</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="C40" t="n">
-        <v>1081.851116722456</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="D40" t="n">
-        <v>1081.851116722456</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="E40" t="n">
-        <v>1081.851116722456</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="F40" t="n">
-        <v>1081.851116722456</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="G40" t="n">
-        <v>1081.851116722456</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="H40" t="n">
-        <v>1081.851116722456</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="I40" t="n">
-        <v>1081.851116722456</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="J40" t="n">
-        <v>1081.851116722456</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="K40" t="n">
-        <v>1081.851116722456</v>
+        <v>26.35547586232215</v>
       </c>
       <c r="L40" t="n">
-        <v>1130.635433557166</v>
+        <v>75.13979269703229</v>
       </c>
       <c r="M40" t="n">
-        <v>1192.46077868793</v>
+        <v>136.9651378277962</v>
       </c>
       <c r="N40" t="n">
-        <v>1258.250671719779</v>
+        <v>202.7550308596446</v>
       </c>
       <c r="O40" t="n">
-        <v>1303.001990822952</v>
+        <v>247.5063499628179</v>
       </c>
       <c r="P40" t="n">
-        <v>1317.773793116107</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="Q40" t="n">
-        <v>1317.773793116107</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="R40" t="n">
-        <v>1317.773793116107</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="S40" t="n">
-        <v>1317.773793116107</v>
+        <v>262.2781522559729</v>
       </c>
       <c r="T40" t="n">
-        <v>1317.773793116107</v>
+        <v>32.65964542183082</v>
       </c>
       <c r="U40" t="n">
-        <v>1317.773793116107</v>
+        <v>32.65964542183082</v>
       </c>
       <c r="V40" t="n">
-        <v>1317.773793116107</v>
+        <v>32.65964542183082</v>
       </c>
       <c r="W40" t="n">
-        <v>1317.773793116107</v>
+        <v>32.65964542183082</v>
       </c>
       <c r="X40" t="n">
-        <v>1317.773793116107</v>
+        <v>32.65964542183082</v>
       </c>
       <c r="Y40" t="n">
-        <v>1096.981213972577</v>
+        <v>26.35547586232215</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="C41" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="D41" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="E41" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="F41" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="G41" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="H41" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="I41" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="J41" t="n">
-        <v>37.38388349266361</v>
+        <v>37.38388349266363</v>
       </c>
       <c r="K41" t="n">
-        <v>181.351217076048</v>
+        <v>101.0862632354339</v>
       </c>
       <c r="L41" t="n">
-        <v>412.2320523909194</v>
+        <v>331.9670985503053</v>
       </c>
       <c r="M41" t="n">
-        <v>683.1107755434816</v>
+        <v>602.8458217028676</v>
       </c>
       <c r="N41" t="n">
-        <v>866.1453972785537</v>
+        <v>866.1453972785539</v>
       </c>
       <c r="O41" t="n">
         <v>1069.584082367094</v>
@@ -7442,19 +7442,19 @@
         <v>1094.4594874851</v>
       </c>
       <c r="U41" t="n">
-        <v>851.0251651172021</v>
+        <v>840.6012679594079</v>
       </c>
       <c r="V41" t="n">
-        <v>574.6465066613687</v>
+        <v>840.6012679594079</v>
       </c>
       <c r="W41" t="n">
-        <v>574.6465066613687</v>
+        <v>840.6012679594079</v>
       </c>
       <c r="X41" t="n">
+        <v>564.2226095035744</v>
+      </c>
+      <c r="Y41" t="n">
         <v>298.2678482055354</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>21.889189749702</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>651.4558790478245</v>
+        <v>327.6612027282725</v>
       </c>
       <c r="C42" t="n">
-        <v>651.4558790478245</v>
+        <v>327.6612027282725</v>
       </c>
       <c r="D42" t="n">
-        <v>651.4558790478245</v>
+        <v>327.6612027282725</v>
       </c>
       <c r="E42" t="n">
-        <v>502.8990795193545</v>
+        <v>168.423747722817</v>
       </c>
       <c r="F42" t="n">
-        <v>356.3645215462394</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="G42" t="n">
-        <v>217.809448162434</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="H42" t="n">
-        <v>106.1377072101064</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="I42" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="J42" t="n">
-        <v>37.42434351072803</v>
+        <v>37.42434351072804</v>
       </c>
       <c r="K42" t="n">
-        <v>37.42434351072803</v>
+        <v>37.42434351072804</v>
       </c>
       <c r="L42" t="n">
-        <v>304.7886002314018</v>
+        <v>37.42434351072804</v>
       </c>
       <c r="M42" t="n">
-        <v>337.1654960823601</v>
+        <v>308.3030666632903</v>
       </c>
       <c r="N42" t="n">
-        <v>608.0442192349224</v>
+        <v>579.1817898158527</v>
       </c>
       <c r="O42" t="n">
-        <v>878.9229423874847</v>
+        <v>850.060512968415</v>
       </c>
       <c r="P42" t="n">
-        <v>1094.4594874851</v>
+        <v>1065.59705806603</v>
       </c>
       <c r="Q42" t="n">
         <v>1094.4594874851</v>
@@ -7518,22 +7518,22 @@
         <v>1094.4594874851</v>
       </c>
       <c r="T42" t="n">
-        <v>1094.4594874851</v>
+        <v>892.9812968739506</v>
       </c>
       <c r="U42" t="n">
-        <v>1094.4594874851</v>
+        <v>770.6648111655481</v>
       </c>
       <c r="V42" t="n">
-        <v>859.3073792533573</v>
+        <v>535.5127029338054</v>
       </c>
       <c r="W42" t="n">
-        <v>859.3073792533573</v>
+        <v>535.5127029338054</v>
       </c>
       <c r="X42" t="n">
-        <v>651.4558790478245</v>
+        <v>327.6612027282725</v>
       </c>
       <c r="Y42" t="n">
-        <v>651.4558790478245</v>
+        <v>327.6612027282725</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="C43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="D43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="E43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="F43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="G43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="H43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="I43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="J43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="K43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="L43" t="n">
         <v>70.67350658441215</v>
@@ -7591,28 +7591,28 @@
         <v>257.8118661433527</v>
       </c>
       <c r="R43" t="n">
-        <v>245.6007671586883</v>
+        <v>257.8118661433527</v>
       </c>
       <c r="S43" t="n">
-        <v>21.889189749702</v>
+        <v>34.1002887343665</v>
       </c>
       <c r="T43" t="n">
-        <v>21.889189749702</v>
+        <v>34.1002887343665</v>
       </c>
       <c r="U43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="V43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="W43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="X43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.889189749702</v>
+        <v>21.88918974970201</v>
       </c>
     </row>
     <row r="44">
@@ -8775,10 +8775,10 @@
         <v>100.7754395250008</v>
       </c>
       <c r="M12" t="n">
-        <v>98.04779256207422</v>
+        <v>98.04779256207419</v>
       </c>
       <c r="N12" t="n">
-        <v>86.08863909729686</v>
+        <v>86.08863909729683</v>
       </c>
       <c r="O12" t="n">
         <v>101.1985235676418</v>
@@ -8787,7 +8787,7 @@
         <v>100.7490867231541</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.7715270972763</v>
+        <v>117.7715270972762</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,10 +9012,10 @@
         <v>100.7754395250008</v>
       </c>
       <c r="M15" t="n">
-        <v>98.04779256207422</v>
+        <v>98.04779256207419</v>
       </c>
       <c r="N15" t="n">
-        <v>86.08863909729686</v>
+        <v>86.08863909729683</v>
       </c>
       <c r="O15" t="n">
         <v>101.1985235676418</v>
@@ -9024,7 +9024,7 @@
         <v>100.7490867231541</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.7715270972763</v>
+        <v>117.7715270972762</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,13 +9164,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>191.518862210571</v>
+        <v>234.5524399047908</v>
       </c>
       <c r="L17" t="n">
         <v>184.4482495859339</v>
       </c>
       <c r="M17" t="n">
-        <v>229.0734626933857</v>
+        <v>186.0398849991658</v>
       </c>
       <c r="N17" t="n">
         <v>227.216333571568</v>
@@ -9179,7 +9179,7 @@
         <v>175.3065599611895</v>
       </c>
       <c r="P17" t="n">
-        <v>240.2981652911452</v>
+        <v>240.2981652911451</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>165.5737171624628</v>
+        <v>109.745140754711</v>
       </c>
       <c r="L18" t="n">
         <v>156.6040159327526</v>
@@ -9252,16 +9252,16 @@
         <v>135.9285944068602</v>
       </c>
       <c r="N18" t="n">
-        <v>86.08863909729686</v>
+        <v>141.9172155050486</v>
       </c>
       <c r="O18" t="n">
-        <v>157.0270999753936</v>
+        <v>101.1985235676418</v>
       </c>
       <c r="P18" t="n">
-        <v>100.7490867231541</v>
+        <v>156.5776631309058</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.7715270972763</v>
+        <v>117.7715270972762</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>110.3989608343219</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>109.745140754711</v>
       </c>
       <c r="L21" t="n">
-        <v>235.9740120620713</v>
+        <v>127.9761769174116</v>
       </c>
       <c r="M21" t="n">
         <v>427.491240841101</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>117.7715270972763</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>109.745140754711</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,16 +9726,16 @@
         <v>427.491240841101</v>
       </c>
       <c r="N24" t="n">
-        <v>415.5320873763236</v>
+        <v>402.9173790800691</v>
       </c>
       <c r="O24" t="n">
-        <v>368.7118328074653</v>
+        <v>101.1985235676418</v>
       </c>
       <c r="P24" t="n">
-        <v>100.7490867231541</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>117.7715270972762</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>110.3989608343219</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>109.745140754711</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>143.6682514234986</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>427.491240841101</v>
@@ -9966,10 +9966,10 @@
         <v>415.5320873763237</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>213.9917365495976</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>100.7490867231541</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10121,7 +10121,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>176.9004149240195</v>
+        <v>109.745140754711</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>127.9761769174116</v>
       </c>
       <c r="M30" t="n">
         <v>427.491240841101</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>100.7490867231541</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>117.7715270972762</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,10 +10431,10 @@
         <v>109.745140754711</v>
       </c>
       <c r="L33" t="n">
-        <v>361.3819333402818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>427.491240841101</v>
+        <v>292.6249075997133</v>
       </c>
       <c r="N33" t="n">
         <v>415.5320873763237</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>100.7490867231541</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>117.7715270972762</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711649</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>109.745140754711</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>127.9761769174117</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>427.491240841101</v>
@@ -10677,10 +10677,10 @@
         <v>415.5320873763237</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>213.9917365495976</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>100.7490867231541</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711649</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>110.3989608343219</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>192.5924894301064</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>302.6995289385708</v>
       </c>
       <c r="M39" t="n">
-        <v>427.491240841101</v>
+        <v>98.04779256207419</v>
       </c>
       <c r="N39" t="n">
         <v>415.5320873763237</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>100.7490867231541</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>117.7715270972762</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>243.0697016210495</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,7 +11069,7 @@
         <v>446.859758156909</v>
       </c>
       <c r="N41" t="n">
-        <v>356.2712134618688</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11142,13 +11142,13 @@
         <v>109.745140754711</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>100.7754395250008</v>
       </c>
       <c r="M42" t="n">
-        <v>130.7517277650624</v>
+        <v>371.6626644333493</v>
       </c>
       <c r="N42" t="n">
-        <v>359.7035109685718</v>
+        <v>359.7035109685719</v>
       </c>
       <c r="O42" t="n">
         <v>374.8133954389168</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>117.7715270972762</v>
+        <v>146.9254962074479</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11382,10 +11382,10 @@
         <v>100.7754395250008</v>
       </c>
       <c r="M45" t="n">
-        <v>98.04779256207421</v>
+        <v>98.04779256207419</v>
       </c>
       <c r="N45" t="n">
-        <v>86.08863909729685</v>
+        <v>86.08863909729683</v>
       </c>
       <c r="O45" t="n">
         <v>101.1985235676418</v>
@@ -23440,7 +23440,7 @@
         <v>83.04608945473007</v>
       </c>
       <c r="K13" t="n">
-        <v>5.321915812043613</v>
+        <v>5.321915812043606</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23677,7 +23677,7 @@
         <v>83.04608945473007</v>
       </c>
       <c r="K16" t="n">
-        <v>5.321915812043613</v>
+        <v>5.321915812043606</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>336.1444017150293</v>
       </c>
       <c r="I17" t="n">
-        <v>197.9388202234565</v>
+        <v>142.1102438157047</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,22 +23777,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>129.4416052671257</v>
+        <v>80.26779516717792</v>
       </c>
       <c r="S17" t="n">
-        <v>201.6096949609004</v>
+        <v>145.7811185531487</v>
       </c>
       <c r="T17" t="n">
         <v>165.8437332804631</v>
       </c>
       <c r="U17" t="n">
-        <v>195.4910609226836</v>
+        <v>251.3196373304354</v>
       </c>
       <c r="V17" t="n">
-        <v>271.9236820623831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>300.0671586174653</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23817,19 +23817,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>108.4712703554532</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>89.24063598563211</v>
       </c>
       <c r="G18" t="n">
-        <v>81.34094624221554</v>
+        <v>81.34094624221552</v>
       </c>
       <c r="H18" t="n">
-        <v>110.5550235428043</v>
+        <v>54.72644713505252</v>
       </c>
       <c r="I18" t="n">
-        <v>83.40603228580038</v>
+        <v>34.23222218585264</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23871,10 +23871,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>195.8664067531678</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>149.9444087957257</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>124.0034037741855</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>111.4182446908761</v>
       </c>
       <c r="D19" t="n">
-        <v>92.7868966104606</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23908,13 +23908,13 @@
         <v>160.9302453289157</v>
       </c>
       <c r="I19" t="n">
-        <v>151.0637314645212</v>
+        <v>101.8899213645734</v>
       </c>
       <c r="J19" t="n">
         <v>83.04608945473007</v>
       </c>
       <c r="K19" t="n">
-        <v>5.321915812043613</v>
+        <v>5.321915812043606</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,16 +23932,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.94732316848051</v>
+        <v>18.11874676072873</v>
       </c>
       <c r="R19" t="n">
-        <v>114.9059173978646</v>
+        <v>170.7344938056164</v>
       </c>
       <c r="S19" t="n">
         <v>221.4744616348964</v>
       </c>
       <c r="T19" t="n">
-        <v>227.3223217658007</v>
+        <v>171.4937453580489</v>
       </c>
       <c r="U19" t="n">
         <v>286.3110727480337</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>237.3491882366433</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>312.5411722986368</v>
       </c>
       <c r="C20" t="n">
-        <v>35.82944349198078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>25.23959334165619</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.87751098385928</v>
+        <v>129.4416052671257</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>201.6096949609004</v>
       </c>
       <c r="T20" t="n">
-        <v>221.6723096882149</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3196373304354</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>19.79752043838619</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>40.28765239944221</v>
       </c>
       <c r="Y20" t="n">
-        <v>56.79449037702682</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,19 +24054,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>76.57246150830443</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.39926567961183</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>83.40603228580038</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,22 +24096,22 @@
         <v>89.35491165495628</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>168.451299333726</v>
       </c>
       <c r="T21" t="n">
-        <v>199.4634087050382</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9299350735246</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24151,7 +24151,7 @@
         <v>83.04608945473007</v>
       </c>
       <c r="K22" t="n">
-        <v>5.321915812043613</v>
+        <v>5.321915812043606</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>170.7344938056164</v>
       </c>
       <c r="S22" t="n">
-        <v>215.2333337709828</v>
+        <v>221.4744616348964</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>227.3223217658007</v>
       </c>
       <c r="U22" t="n">
         <v>286.3110727480337</v>
@@ -24187,10 +24187,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>278.6692040959139</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,19 +24203,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>53.29039338445375</v>
       </c>
       <c r="C23" t="n">
-        <v>75.09910252684085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>25.23959334165619</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>77.43259746268467</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>414.9775427976213</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>129.4416052671257</v>
+        <v>60.94012571117372</v>
       </c>
       <c r="S23" t="n">
         <v>201.6096949609004</v>
       </c>
       <c r="T23" t="n">
-        <v>221.6723096882149</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3196373304354</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>19.79752043838624</v>
+        <v>19.79752043838619</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>56.79449037702676</v>
       </c>
     </row>
     <row r="24">
@@ -24291,7 +24291,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>61.4402262849672</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24300,10 +24300,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>110.5550235428043</v>
       </c>
       <c r="I24" t="n">
-        <v>1.585367405870358</v>
+        <v>83.40603228580038</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>89.35491165495628</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24339,7 +24339,7 @@
         <v>199.4634087050382</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9299350735246</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,10 +24348,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24388,7 +24388,7 @@
         <v>83.04608945473007</v>
       </c>
       <c r="K25" t="n">
-        <v>5.321915812043613</v>
+        <v>5.321915812043606</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>73.94732316848051</v>
       </c>
       <c r="R25" t="n">
-        <v>170.7344938056164</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>221.4744616348964</v>
+        <v>158.6455058107984</v>
       </c>
       <c r="T25" t="n">
         <v>227.3223217658007</v>
@@ -24421,7 +24421,7 @@
         <v>286.3110727480337</v>
       </c>
       <c r="V25" t="n">
-        <v>18.5741936941138</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>53.29039338445375</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>35.82944349198073</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>25.23959334165613</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>85.53409451859454</v>
+        <v>414.9775427976213</v>
       </c>
       <c r="H26" t="n">
-        <v>6.700953436002521</v>
+        <v>336.1444017150293</v>
       </c>
       <c r="I26" t="n">
-        <v>35.51544643752362</v>
+        <v>197.9388202234565</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>129.4416052671257</v>
       </c>
       <c r="S26" t="n">
         <v>201.6096949609004</v>
@@ -24500,7 +24500,7 @@
         <v>251.3196373304354</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>96.06414941188677</v>
       </c>
     </row>
     <row r="27">
@@ -24522,13 +24522,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>18.49140138781115</v>
+        <v>135.074107921054</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24570,7 +24570,7 @@
         <v>89.35491165495628</v>
       </c>
       <c r="S27" t="n">
-        <v>168.451299333726</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>199.4634087050382</v>
@@ -24579,16 +24579,16 @@
         <v>225.9299350735246</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>82.29884448712599</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24625,7 +24625,7 @@
         <v>83.04608945473007</v>
       </c>
       <c r="K28" t="n">
-        <v>5.32191581204361</v>
+        <v>5.321915812043606</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>210.7308591114176</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>53.29039338445381</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,19 +24686,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>52.48692179323501</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.9775427976213</v>
+        <v>214.9714351860991</v>
       </c>
       <c r="H29" t="n">
         <v>336.1444017150293</v>
       </c>
       <c r="I29" t="n">
-        <v>197.9388202234565</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24725,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>129.4416052671257</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>201.6096949609004</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>184.4260097234828</v>
+        <v>251.3196373304354</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>19.79752043838619</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>40.28765239944221</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,25 +24759,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>109.1834250160163</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.1695226499673</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>110.5550235428043</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>83.40603228580038</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24807,13 +24807,13 @@
         <v>89.35491165495628</v>
       </c>
       <c r="S30" t="n">
-        <v>168.451299333726</v>
+        <v>56.41551163825685</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>199.4634087050382</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9299350735246</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24822,7 +24822,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24862,7 +24862,7 @@
         <v>83.04608945473007</v>
       </c>
       <c r="K31" t="n">
-        <v>5.32191581204361</v>
+        <v>5.321915812043606</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>52.9595487068768</v>
+        <v>278.6692040959139</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,25 +24917,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>35.82944349198078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>289.6954010515514</v>
       </c>
       <c r="F32" t="n">
-        <v>77.43259746268467</v>
+        <v>77.43259746268461</v>
       </c>
       <c r="G32" t="n">
-        <v>414.9775427976213</v>
+        <v>85.53409451859449</v>
       </c>
       <c r="H32" t="n">
-        <v>336.1444017150293</v>
+        <v>6.700953436002465</v>
       </c>
       <c r="I32" t="n">
-        <v>197.9388202234565</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24974,7 +24974,7 @@
         <v>251.3196373304354</v>
       </c>
       <c r="V32" t="n">
-        <v>37.57846922596809</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>56.79449037702682</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25002,16 +25002,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>65.76624262997909</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.1695226499673</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>110.5550235428043</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>89.35491165495628</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>168.451299333726</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>199.4634087050382</v>
+        <v>151.2521171134998</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>140.7616787775353</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25099,7 +25099,7 @@
         <v>83.04608945473007</v>
       </c>
       <c r="K34" t="n">
-        <v>5.32191581204361</v>
+        <v>5.321915812043606</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>73.94732316848051</v>
       </c>
       <c r="R34" t="n">
-        <v>158.6455058107985</v>
+        <v>170.7344938056164</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>221.4744616348964</v>
       </c>
       <c r="T34" t="n">
         <v>227.3223217658007</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25157,13 +25157,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>193.9508576436419</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>52.48692179323496</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>116.618918637652</v>
       </c>
       <c r="G35" t="n">
         <v>414.9775427976213</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>201.6096949609004</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>221.6723096882149</v>
@@ -25211,16 +25211,16 @@
         <v>251.3196373304354</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>19.79752043838624</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>40.28765239944227</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>56.79449037702682</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>3.543950494045788</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.1695226499673</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>110.5550235428043</v>
       </c>
       <c r="I36" t="n">
         <v>83.40603228580038</v>
@@ -25281,7 +25281,7 @@
         <v>89.35491165495628</v>
       </c>
       <c r="S36" t="n">
-        <v>168.451299333726</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.4634087050382</v>
@@ -25293,7 +25293,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>39.78457759700203</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25336,7 +25336,7 @@
         <v>83.04608945473007</v>
       </c>
       <c r="K37" t="n">
-        <v>5.32191581204361</v>
+        <v>5.321915812043606</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>73.94732316848051</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>170.7344938056164</v>
       </c>
       <c r="S37" t="n">
-        <v>158.6455058107985</v>
+        <v>221.4744616348964</v>
       </c>
       <c r="T37" t="n">
         <v>227.3223217658007</v>
@@ -25369,7 +25369,7 @@
         <v>286.3110727480337</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>18.57419369411372</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25394,19 +25394,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>25.23959334165613</v>
       </c>
       <c r="E38" t="n">
-        <v>52.48692179323501</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>338.3745661857596</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>85.53409451859454</v>
+        <v>414.9775427976213</v>
       </c>
       <c r="H38" t="n">
-        <v>6.700953436002521</v>
+        <v>267.5595842991847</v>
       </c>
       <c r="I38" t="n">
         <v>197.9388202234565</v>
@@ -25436,10 +25436,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>129.4416052671257</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>201.6096949609004</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25448,7 +25448,7 @@
         <v>251.3196373304354</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25467,28 +25467,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>20.78027807934187</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.1695226499673</v>
       </c>
       <c r="H39" t="n">
-        <v>12.54480654477021</v>
+        <v>110.5550235428043</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>83.40603228580038</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>89.35491165495628</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>168.451299333726</v>
@@ -25533,10 +25533,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>164.8531839043177</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25573,7 +25573,7 @@
         <v>83.04608945473007</v>
       </c>
       <c r="K40" t="n">
-        <v>5.32191581204361</v>
+        <v>5.321915812043606</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>221.4744616348964</v>
       </c>
       <c r="T40" t="n">
-        <v>227.3223217658007</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.3110727480337</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>212.3435254881812</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>109.1189697922055</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25682,19 +25682,19 @@
         <v>221.6723096882149</v>
       </c>
       <c r="U41" t="n">
-        <v>10.31965818621646</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>54.13738659885991</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>96.11622880719403</v>
+        <v>96.11622880719398</v>
       </c>
       <c r="Y41" t="n">
-        <v>112.6230667847786</v>
+        <v>122.942724970995</v>
       </c>
     </row>
     <row r="42">
@@ -25713,19 +25713,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>10.5738489222156</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.1695226499673</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>110.5550235428043</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>83.40603228580038</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25758,10 +25758,10 @@
         <v>168.451299333726</v>
       </c>
       <c r="T42" t="n">
-        <v>199.4634087050382</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9299350735246</v>
+        <v>104.8366142222062</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25810,7 +25810,7 @@
         <v>83.04608945473007</v>
       </c>
       <c r="K43" t="n">
-        <v>5.32191581204361</v>
+        <v>5.321915812043606</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>73.94732316848051</v>
       </c>
       <c r="R43" t="n">
-        <v>158.6455058107985</v>
+        <v>170.7344938056164</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>227.3223217658007</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3110727480337</v>
+        <v>274.2220847532158</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26047,7 +26047,7 @@
         <v>83.04608945473007</v>
       </c>
       <c r="K46" t="n">
-        <v>5.32191581204361</v>
+        <v>5.321915812043606</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>346651.0207839113</v>
+        <v>346651.0207839112</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>532688.3383586291</v>
+        <v>532688.3383586293</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>532688.3383586293</v>
+        <v>532688.3383586294</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>532688.3383586293</v>
+        <v>532688.3383586291</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>494847.6544704412</v>
+        <v>494847.6544704413</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>532529.6201660752</v>
+      </c>
+      <c r="C2" t="n">
+        <v>532529.6201660752</v>
+      </c>
+      <c r="D2" t="n">
         <v>532529.6201660751</v>
-      </c>
-      <c r="C2" t="n">
-        <v>532529.6201660751</v>
-      </c>
-      <c r="D2" t="n">
-        <v>532529.620166075</v>
       </c>
       <c r="E2" t="n">
         <v>144792.2050165551</v>
@@ -26338,16 +26338,16 @@
         <v>249821.1726634216</v>
       </c>
       <c r="K2" t="n">
+        <v>249821.1726634217</v>
+      </c>
+      <c r="L2" t="n">
         <v>249821.1726634215</v>
-      </c>
-      <c r="L2" t="n">
-        <v>249821.1726634216</v>
       </c>
       <c r="M2" t="n">
         <v>249821.1726634216</v>
       </c>
       <c r="N2" t="n">
-        <v>249821.1726634215</v>
+        <v>249821.1726634217</v>
       </c>
       <c r="O2" t="n">
         <v>232640.0711950916</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>64989.02489413427</v>
+        <v>64989.02489413429</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15301.77536471864</v>
+        <v>15301.77536471865</v>
       </c>
       <c r="H3" t="n">
         <v>73823.75496471685</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="C4" t="n">
-        <v>415532.5557256226</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="D4" t="n">
-        <v>415532.5557256225</v>
+        <v>414772.3986129589</v>
       </c>
       <c r="E4" t="n">
-        <v>56946.10292465858</v>
+        <v>56333.30559840363</v>
       </c>
       <c r="F4" t="n">
-        <v>56946.10292465858</v>
+        <v>56333.30559840363</v>
       </c>
       <c r="G4" t="n">
-        <v>67597.84812231266</v>
+        <v>66870.94826751675</v>
       </c>
       <c r="H4" t="n">
-        <v>111356.9939574158</v>
+        <v>110161.3418846568</v>
       </c>
       <c r="I4" t="n">
-        <v>111356.9939574158</v>
+        <v>110161.3418846568</v>
       </c>
       <c r="J4" t="n">
-        <v>111356.9939574158</v>
+        <v>110161.3418846568</v>
       </c>
       <c r="K4" t="n">
-        <v>111356.9939574158</v>
+        <v>110161.3418846568</v>
       </c>
       <c r="L4" t="n">
-        <v>111356.9939574158</v>
+        <v>110161.3418846568</v>
       </c>
       <c r="M4" t="n">
-        <v>111356.9939574158</v>
+        <v>110161.3418846568</v>
       </c>
       <c r="N4" t="n">
-        <v>111356.9939574158</v>
+        <v>110161.3418846568</v>
       </c>
       <c r="O4" t="n">
-        <v>102456.2205730747</v>
+        <v>101355.9144488226</v>
       </c>
       <c r="P4" t="n">
-        <v>56946.10292465858</v>
+        <v>56333.30559840363</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1763.449654397764</v>
+        <v>1763.449654397765</v>
       </c>
       <c r="F5" t="n">
-        <v>1763.449654397764</v>
+        <v>1763.449654397765</v>
       </c>
       <c r="G5" t="n">
-        <v>5157.827099989071</v>
+        <v>5157.827099989073</v>
       </c>
       <c r="H5" t="n">
-        <v>21793.61130976259</v>
+        <v>21793.6113097626</v>
       </c>
       <c r="I5" t="n">
-        <v>21793.61130976259</v>
+        <v>21793.6113097626</v>
       </c>
       <c r="J5" t="n">
-        <v>21793.61130976259</v>
+        <v>21793.6113097626</v>
       </c>
       <c r="K5" t="n">
-        <v>21793.61130976259</v>
+        <v>21793.6113097626</v>
       </c>
       <c r="L5" t="n">
-        <v>21793.61130976259</v>
+        <v>21793.6113097626</v>
       </c>
       <c r="M5" t="n">
-        <v>21793.61130976259</v>
+        <v>21793.6113097626</v>
       </c>
       <c r="N5" t="n">
-        <v>21793.61130976259</v>
+        <v>21793.6113097626</v>
       </c>
       <c r="O5" t="n">
-        <v>18399.23386417128</v>
+        <v>18399.23386417129</v>
       </c>
       <c r="P5" t="n">
         <v>1763.449654397765</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83369.4644404526</v>
+        <v>84129.6215531163</v>
       </c>
       <c r="C6" t="n">
-        <v>83369.46444045249</v>
+        <v>84129.6215531163</v>
       </c>
       <c r="D6" t="n">
-        <v>83369.46444045249</v>
+        <v>84129.62155311619</v>
       </c>
       <c r="E6" t="n">
-        <v>21093.62754336454</v>
+        <v>21706.42486961943</v>
       </c>
       <c r="F6" t="n">
-        <v>86082.65243749881</v>
+        <v>86695.44976375373</v>
       </c>
       <c r="G6" t="n">
-        <v>77295.74471130686</v>
+        <v>78022.64456610275</v>
       </c>
       <c r="H6" t="n">
-        <v>42846.81243152638</v>
+        <v>44042.46450428535</v>
       </c>
       <c r="I6" t="n">
-        <v>116670.5673962432</v>
+        <v>117866.2194690022</v>
       </c>
       <c r="J6" t="n">
-        <v>116670.5673962432</v>
+        <v>117866.2194690022</v>
       </c>
       <c r="K6" t="n">
-        <v>116670.5673962431</v>
+        <v>117866.2194690023</v>
       </c>
       <c r="L6" t="n">
-        <v>116670.5673962433</v>
+        <v>117866.2194690021</v>
       </c>
       <c r="M6" t="n">
-        <v>116670.5673962432</v>
+        <v>117866.2194690022</v>
       </c>
       <c r="N6" t="n">
-        <v>116670.5673962431</v>
+        <v>117866.2194690023</v>
       </c>
       <c r="O6" t="n">
-        <v>111784.6167578456</v>
+        <v>112884.9228820977</v>
       </c>
       <c r="P6" t="n">
-        <v>86082.65243749878</v>
+        <v>86695.44976375373</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80.89218598154882</v>
+        <v>80.89218598154885</v>
       </c>
       <c r="F3" t="n">
-        <v>80.89218598154882</v>
+        <v>80.89218598154885</v>
       </c>
       <c r="G3" t="n">
-        <v>80.89218598154882</v>
+        <v>80.89218598154885</v>
       </c>
       <c r="H3" t="n">
-        <v>80.89218598154882</v>
+        <v>80.89218598154885</v>
       </c>
       <c r="I3" t="n">
-        <v>80.89218598154882</v>
+        <v>80.89218598154885</v>
       </c>
       <c r="J3" t="n">
-        <v>80.89218598154883</v>
+        <v>80.89218598154885</v>
       </c>
       <c r="K3" t="n">
-        <v>80.89218598154883</v>
+        <v>80.89218598154885</v>
       </c>
       <c r="L3" t="n">
-        <v>80.89218598154883</v>
+        <v>80.89218598154885</v>
       </c>
       <c r="M3" t="n">
-        <v>80.89218598154883</v>
+        <v>80.89218598154885</v>
       </c>
       <c r="N3" t="n">
-        <v>80.89218598154883</v>
+        <v>80.89218598154885</v>
       </c>
       <c r="O3" t="n">
-        <v>80.89218598154883</v>
+        <v>80.89218598154885</v>
       </c>
       <c r="P3" t="n">
-        <v>80.89218598154883</v>
+        <v>80.89218598154885</v>
       </c>
     </row>
     <row r="4">
@@ -26802,7 +26802,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>55.82857640775175</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="H4" t="n">
         <v>329.4434482790268</v>
@@ -26826,7 +26826,7 @@
         <v>329.4434482790268</v>
       </c>
       <c r="O4" t="n">
-        <v>273.614871871275</v>
+        <v>273.6148718712751</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80.89218598154882</v>
+        <v>80.89218598154885</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>55.82857640775175</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="H4" t="n">
         <v>273.614871871275</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>55.82857640775175</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="P4" t="n">
         <v>273.614871871275</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3251947175137638</v>
+        <v>0.3251947175137639</v>
       </c>
       <c r="H11" t="n">
-        <v>3.330400400737835</v>
+        <v>3.330400400737836</v>
       </c>
       <c r="I11" t="n">
-        <v>12.53706934694939</v>
+        <v>12.5370693469494</v>
       </c>
       <c r="J11" t="n">
-        <v>27.60049515558384</v>
+        <v>27.60049515558385</v>
       </c>
       <c r="K11" t="n">
-        <v>41.36598754794147</v>
+        <v>41.36598754794149</v>
       </c>
       <c r="L11" t="n">
-        <v>51.31816538405334</v>
+        <v>51.31816538405335</v>
       </c>
       <c r="M11" t="n">
-        <v>57.10134694163873</v>
+        <v>57.10134694163875</v>
       </c>
       <c r="N11" t="n">
-        <v>58.02530643277471</v>
+        <v>58.02530643277473</v>
       </c>
       <c r="O11" t="n">
-        <v>54.79165146049722</v>
+        <v>54.79165146049724</v>
       </c>
       <c r="P11" t="n">
-        <v>46.76340687187617</v>
+        <v>46.76340687187619</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.11737105091449</v>
+        <v>35.11737105091451</v>
       </c>
       <c r="R11" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S11" t="n">
-        <v>7.410374625344901</v>
+        <v>7.410374625344904</v>
       </c>
       <c r="T11" t="n">
-        <v>1.423539875916502</v>
+        <v>1.423539875916503</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0260155774011011</v>
+        <v>0.02601557740110111</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1739945132433314</v>
+        <v>0.1739945132433315</v>
       </c>
       <c r="H12" t="n">
-        <v>1.680420693692175</v>
+        <v>1.680420693692176</v>
       </c>
       <c r="I12" t="n">
-        <v>5.990600565614701</v>
+        <v>5.990600565614703</v>
       </c>
       <c r="J12" t="n">
-        <v>16.43866583234475</v>
+        <v>16.43866583234476</v>
       </c>
       <c r="K12" t="n">
         <v>28.09629821964796</v>
       </c>
       <c r="L12" t="n">
-        <v>37.77894025487335</v>
+        <v>37.77894025487336</v>
       </c>
       <c r="M12" t="n">
-        <v>44.0862413599441</v>
+        <v>44.08624135994412</v>
       </c>
       <c r="N12" t="n">
-        <v>45.25307298603645</v>
+        <v>45.25307298603646</v>
       </c>
       <c r="O12" t="n">
-        <v>41.39772087680263</v>
+        <v>41.39772087680264</v>
       </c>
       <c r="P12" t="n">
-        <v>33.22532069117616</v>
+        <v>33.22532069117617</v>
       </c>
       <c r="Q12" t="n">
         <v>22.21024698874526</v>
@@ -31865,10 +31865,10 @@
         <v>10.80292249768685</v>
       </c>
       <c r="S12" t="n">
-        <v>3.231871770111878</v>
+        <v>3.231871770111879</v>
       </c>
       <c r="T12" t="n">
-        <v>0.7013199897834277</v>
+        <v>0.701319989783428</v>
       </c>
       <c r="U12" t="n">
         <v>0.01144700745021918</v>
@@ -31911,46 +31911,46 @@
         <v>0.1458711550486946</v>
       </c>
       <c r="H13" t="n">
-        <v>1.296927178523849</v>
+        <v>1.29692717852385</v>
       </c>
       <c r="I13" t="n">
-        <v>4.386743462737107</v>
+        <v>4.386743462737109</v>
       </c>
       <c r="J13" t="n">
         <v>10.31309066194271</v>
       </c>
       <c r="K13" t="n">
-        <v>16.94757601383924</v>
+        <v>16.94757601383925</v>
       </c>
       <c r="L13" t="n">
         <v>21.68706245151229</v>
       </c>
       <c r="M13" t="n">
-        <v>22.86596660458764</v>
+        <v>22.86596660458765</v>
       </c>
       <c r="N13" t="n">
-        <v>22.32226502667889</v>
+        <v>22.3222650266789</v>
       </c>
       <c r="O13" t="n">
-        <v>20.61822471542822</v>
+        <v>20.61822471542823</v>
       </c>
       <c r="P13" t="n">
         <v>17.64245315243484</v>
       </c>
       <c r="Q13" t="n">
-        <v>12.21472008321387</v>
+        <v>12.21472008321388</v>
       </c>
       <c r="R13" t="n">
-        <v>6.55889757155312</v>
+        <v>6.558897571553122</v>
       </c>
       <c r="S13" t="n">
-        <v>2.542136402075886</v>
+        <v>2.542136402075887</v>
       </c>
       <c r="T13" t="n">
-        <v>0.6232676624807858</v>
+        <v>0.623267662480786</v>
       </c>
       <c r="U13" t="n">
-        <v>0.007956608457201532</v>
+        <v>0.007956608457201534</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3251947175137638</v>
+        <v>0.3251947175137639</v>
       </c>
       <c r="H14" t="n">
-        <v>3.330400400737835</v>
+        <v>3.330400400737836</v>
       </c>
       <c r="I14" t="n">
-        <v>12.53706934694939</v>
+        <v>12.5370693469494</v>
       </c>
       <c r="J14" t="n">
-        <v>27.60049515558384</v>
+        <v>27.60049515558385</v>
       </c>
       <c r="K14" t="n">
-        <v>41.36598754794147</v>
+        <v>41.36598754794149</v>
       </c>
       <c r="L14" t="n">
-        <v>51.31816538405334</v>
+        <v>51.31816538405335</v>
       </c>
       <c r="M14" t="n">
-        <v>57.10134694163873</v>
+        <v>57.10134694163875</v>
       </c>
       <c r="N14" t="n">
-        <v>58.02530643277471</v>
+        <v>58.02530643277473</v>
       </c>
       <c r="O14" t="n">
-        <v>54.79165146049722</v>
+        <v>54.79165146049724</v>
       </c>
       <c r="P14" t="n">
-        <v>46.76340687187617</v>
+        <v>46.76340687187619</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.11737105091449</v>
+        <v>35.11737105091451</v>
       </c>
       <c r="R14" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S14" t="n">
-        <v>7.410374625344901</v>
+        <v>7.410374625344904</v>
       </c>
       <c r="T14" t="n">
-        <v>1.423539875916502</v>
+        <v>1.423539875916503</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0260155774011011</v>
+        <v>0.02601557740110111</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1739945132433314</v>
+        <v>0.1739945132433315</v>
       </c>
       <c r="H15" t="n">
-        <v>1.680420693692175</v>
+        <v>1.680420693692176</v>
       </c>
       <c r="I15" t="n">
-        <v>5.990600565614701</v>
+        <v>5.990600565614703</v>
       </c>
       <c r="J15" t="n">
-        <v>16.43866583234475</v>
+        <v>16.43866583234476</v>
       </c>
       <c r="K15" t="n">
         <v>28.09629821964796</v>
       </c>
       <c r="L15" t="n">
-        <v>37.77894025487335</v>
+        <v>37.77894025487336</v>
       </c>
       <c r="M15" t="n">
-        <v>44.0862413599441</v>
+        <v>44.08624135994412</v>
       </c>
       <c r="N15" t="n">
-        <v>45.25307298603645</v>
+        <v>45.25307298603646</v>
       </c>
       <c r="O15" t="n">
-        <v>41.39772087680263</v>
+        <v>41.39772087680264</v>
       </c>
       <c r="P15" t="n">
-        <v>33.22532069117616</v>
+        <v>33.22532069117617</v>
       </c>
       <c r="Q15" t="n">
         <v>22.21024698874526</v>
@@ -32102,10 +32102,10 @@
         <v>10.80292249768685</v>
       </c>
       <c r="S15" t="n">
-        <v>3.231871770111878</v>
+        <v>3.231871770111879</v>
       </c>
       <c r="T15" t="n">
-        <v>0.7013199897834277</v>
+        <v>0.701319989783428</v>
       </c>
       <c r="U15" t="n">
         <v>0.01144700745021918</v>
@@ -32148,46 +32148,46 @@
         <v>0.1458711550486946</v>
       </c>
       <c r="H16" t="n">
-        <v>1.296927178523849</v>
+        <v>1.29692717852385</v>
       </c>
       <c r="I16" t="n">
-        <v>4.386743462737107</v>
+        <v>4.386743462737109</v>
       </c>
       <c r="J16" t="n">
         <v>10.31309066194271</v>
       </c>
       <c r="K16" t="n">
-        <v>16.94757601383924</v>
+        <v>16.94757601383925</v>
       </c>
       <c r="L16" t="n">
         <v>21.68706245151229</v>
       </c>
       <c r="M16" t="n">
-        <v>22.86596660458764</v>
+        <v>22.86596660458765</v>
       </c>
       <c r="N16" t="n">
-        <v>22.32226502667889</v>
+        <v>22.3222650266789</v>
       </c>
       <c r="O16" t="n">
-        <v>20.61822471542822</v>
+        <v>20.61822471542823</v>
       </c>
       <c r="P16" t="n">
         <v>17.64245315243484</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.21472008321387</v>
+        <v>12.21472008321388</v>
       </c>
       <c r="R16" t="n">
-        <v>6.55889757155312</v>
+        <v>6.558897571553122</v>
       </c>
       <c r="S16" t="n">
-        <v>2.542136402075886</v>
+        <v>2.542136402075887</v>
       </c>
       <c r="T16" t="n">
-        <v>0.6232676624807858</v>
+        <v>0.623267662480786</v>
       </c>
       <c r="U16" t="n">
-        <v>0.007956608457201532</v>
+        <v>0.007956608457201534</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3251947175137638</v>
+        <v>0.3251947175137639</v>
       </c>
       <c r="H17" t="n">
-        <v>3.330400400737835</v>
+        <v>3.330400400737836</v>
       </c>
       <c r="I17" t="n">
-        <v>12.53706934694939</v>
+        <v>12.5370693469494</v>
       </c>
       <c r="J17" t="n">
-        <v>27.60049515558384</v>
+        <v>27.60049515558385</v>
       </c>
       <c r="K17" t="n">
-        <v>41.36598754794147</v>
+        <v>41.36598754794149</v>
       </c>
       <c r="L17" t="n">
-        <v>51.31816538405334</v>
+        <v>51.31816538405335</v>
       </c>
       <c r="M17" t="n">
-        <v>57.10134694163873</v>
+        <v>57.10134694163875</v>
       </c>
       <c r="N17" t="n">
-        <v>58.02530643277471</v>
+        <v>58.02530643277473</v>
       </c>
       <c r="O17" t="n">
-        <v>54.79165146049722</v>
+        <v>54.79165146049724</v>
       </c>
       <c r="P17" t="n">
-        <v>46.76340687187617</v>
+        <v>46.76340687187619</v>
       </c>
       <c r="Q17" t="n">
-        <v>35.11737105091449</v>
+        <v>35.11737105091451</v>
       </c>
       <c r="R17" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S17" t="n">
-        <v>7.410374625344901</v>
+        <v>7.410374625344904</v>
       </c>
       <c r="T17" t="n">
-        <v>1.423539875916502</v>
+        <v>1.423539875916503</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0260155774011011</v>
+        <v>0.02601557740110111</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1739945132433314</v>
+        <v>0.1739945132433315</v>
       </c>
       <c r="H18" t="n">
-        <v>1.680420693692175</v>
+        <v>1.680420693692176</v>
       </c>
       <c r="I18" t="n">
-        <v>5.990600565614701</v>
+        <v>5.990600565614703</v>
       </c>
       <c r="J18" t="n">
-        <v>16.43866583234475</v>
+        <v>16.43866583234476</v>
       </c>
       <c r="K18" t="n">
         <v>28.09629821964796</v>
       </c>
       <c r="L18" t="n">
-        <v>37.77894025487335</v>
+        <v>37.77894025487336</v>
       </c>
       <c r="M18" t="n">
-        <v>44.0862413599441</v>
+        <v>44.08624135994412</v>
       </c>
       <c r="N18" t="n">
-        <v>45.25307298603645</v>
+        <v>45.25307298603646</v>
       </c>
       <c r="O18" t="n">
-        <v>41.39772087680263</v>
+        <v>41.39772087680264</v>
       </c>
       <c r="P18" t="n">
-        <v>33.22532069117616</v>
+        <v>33.22532069117617</v>
       </c>
       <c r="Q18" t="n">
         <v>22.21024698874526</v>
@@ -32339,10 +32339,10 @@
         <v>10.80292249768685</v>
       </c>
       <c r="S18" t="n">
-        <v>3.231871770111878</v>
+        <v>3.231871770111879</v>
       </c>
       <c r="T18" t="n">
-        <v>0.7013199897834277</v>
+        <v>0.701319989783428</v>
       </c>
       <c r="U18" t="n">
         <v>0.01144700745021918</v>
@@ -32385,46 +32385,46 @@
         <v>0.1458711550486946</v>
       </c>
       <c r="H19" t="n">
-        <v>1.296927178523849</v>
+        <v>1.29692717852385</v>
       </c>
       <c r="I19" t="n">
-        <v>4.386743462737107</v>
+        <v>4.386743462737109</v>
       </c>
       <c r="J19" t="n">
         <v>10.31309066194271</v>
       </c>
       <c r="K19" t="n">
-        <v>16.94757601383924</v>
+        <v>16.94757601383925</v>
       </c>
       <c r="L19" t="n">
         <v>21.68706245151229</v>
       </c>
       <c r="M19" t="n">
-        <v>22.86596660458764</v>
+        <v>22.86596660458765</v>
       </c>
       <c r="N19" t="n">
-        <v>22.32226502667889</v>
+        <v>22.3222650266789</v>
       </c>
       <c r="O19" t="n">
-        <v>20.61822471542822</v>
+        <v>20.61822471542823</v>
       </c>
       <c r="P19" t="n">
         <v>17.64245315243484</v>
       </c>
       <c r="Q19" t="n">
-        <v>12.21472008321387</v>
+        <v>12.21472008321388</v>
       </c>
       <c r="R19" t="n">
-        <v>6.55889757155312</v>
+        <v>6.558897571553122</v>
       </c>
       <c r="S19" t="n">
-        <v>2.542136402075886</v>
+        <v>2.542136402075887</v>
       </c>
       <c r="T19" t="n">
-        <v>0.6232676624807858</v>
+        <v>0.623267662480786</v>
       </c>
       <c r="U19" t="n">
-        <v>0.007956608457201532</v>
+        <v>0.007956608457201534</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3251947175137638</v>
+        <v>0.3251947175137639</v>
       </c>
       <c r="H20" t="n">
-        <v>3.330400400737835</v>
+        <v>3.330400400737836</v>
       </c>
       <c r="I20" t="n">
-        <v>12.53706934694939</v>
+        <v>12.5370693469494</v>
       </c>
       <c r="J20" t="n">
-        <v>27.60049515558384</v>
+        <v>27.60049515558385</v>
       </c>
       <c r="K20" t="n">
-        <v>41.36598754794147</v>
+        <v>41.36598754794149</v>
       </c>
       <c r="L20" t="n">
-        <v>51.31816538405334</v>
+        <v>51.31816538405335</v>
       </c>
       <c r="M20" t="n">
-        <v>57.10134694163873</v>
+        <v>57.10134694163875</v>
       </c>
       <c r="N20" t="n">
-        <v>58.02530643277471</v>
+        <v>58.02530643277473</v>
       </c>
       <c r="O20" t="n">
-        <v>54.79165146049722</v>
+        <v>54.79165146049724</v>
       </c>
       <c r="P20" t="n">
-        <v>46.76340687187617</v>
+        <v>46.76340687187619</v>
       </c>
       <c r="Q20" t="n">
-        <v>35.11737105091449</v>
+        <v>35.11737105091451</v>
       </c>
       <c r="R20" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S20" t="n">
-        <v>7.410374625344901</v>
+        <v>7.410374625344904</v>
       </c>
       <c r="T20" t="n">
-        <v>1.423539875916502</v>
+        <v>1.423539875916503</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0260155774011011</v>
+        <v>0.02601557740110111</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1739945132433314</v>
+        <v>0.1739945132433315</v>
       </c>
       <c r="H21" t="n">
-        <v>1.680420693692175</v>
+        <v>1.680420693692176</v>
       </c>
       <c r="I21" t="n">
-        <v>5.990600565614701</v>
+        <v>5.990600565614703</v>
       </c>
       <c r="J21" t="n">
-        <v>16.43866583234475</v>
+        <v>16.43866583234476</v>
       </c>
       <c r="K21" t="n">
         <v>28.09629821964796</v>
       </c>
       <c r="L21" t="n">
-        <v>37.77894025487335</v>
+        <v>37.77894025487336</v>
       </c>
       <c r="M21" t="n">
-        <v>44.0862413599441</v>
+        <v>44.08624135994412</v>
       </c>
       <c r="N21" t="n">
-        <v>45.25307298603645</v>
+        <v>45.25307298603646</v>
       </c>
       <c r="O21" t="n">
-        <v>41.39772087680263</v>
+        <v>41.39772087680264</v>
       </c>
       <c r="P21" t="n">
-        <v>33.22532069117616</v>
+        <v>33.22532069117617</v>
       </c>
       <c r="Q21" t="n">
         <v>22.21024698874526</v>
@@ -32576,10 +32576,10 @@
         <v>10.80292249768685</v>
       </c>
       <c r="S21" t="n">
-        <v>3.231871770111878</v>
+        <v>3.231871770111879</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7013199897834277</v>
+        <v>0.701319989783428</v>
       </c>
       <c r="U21" t="n">
         <v>0.01144700745021918</v>
@@ -32622,46 +32622,46 @@
         <v>0.1458711550486946</v>
       </c>
       <c r="H22" t="n">
-        <v>1.296927178523849</v>
+        <v>1.29692717852385</v>
       </c>
       <c r="I22" t="n">
-        <v>4.386743462737107</v>
+        <v>4.386743462737109</v>
       </c>
       <c r="J22" t="n">
         <v>10.31309066194271</v>
       </c>
       <c r="K22" t="n">
-        <v>16.94757601383924</v>
+        <v>16.94757601383925</v>
       </c>
       <c r="L22" t="n">
         <v>21.68706245151229</v>
       </c>
       <c r="M22" t="n">
-        <v>22.86596660458764</v>
+        <v>22.86596660458765</v>
       </c>
       <c r="N22" t="n">
-        <v>22.32226502667889</v>
+        <v>22.3222650266789</v>
       </c>
       <c r="O22" t="n">
-        <v>20.61822471542822</v>
+        <v>20.61822471542823</v>
       </c>
       <c r="P22" t="n">
         <v>17.64245315243484</v>
       </c>
       <c r="Q22" t="n">
-        <v>12.21472008321387</v>
+        <v>12.21472008321388</v>
       </c>
       <c r="R22" t="n">
-        <v>6.55889757155312</v>
+        <v>6.558897571553122</v>
       </c>
       <c r="S22" t="n">
-        <v>2.542136402075886</v>
+        <v>2.542136402075887</v>
       </c>
       <c r="T22" t="n">
-        <v>0.6232676624807858</v>
+        <v>0.623267662480786</v>
       </c>
       <c r="U22" t="n">
-        <v>0.007956608457201532</v>
+        <v>0.007956608457201534</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3251947175137638</v>
+        <v>0.3251947175137639</v>
       </c>
       <c r="H23" t="n">
-        <v>3.330400400737835</v>
+        <v>3.330400400737836</v>
       </c>
       <c r="I23" t="n">
-        <v>12.53706934694939</v>
+        <v>12.5370693469494</v>
       </c>
       <c r="J23" t="n">
-        <v>27.60049515558384</v>
+        <v>27.60049515558385</v>
       </c>
       <c r="K23" t="n">
-        <v>41.36598754794147</v>
+        <v>41.36598754794149</v>
       </c>
       <c r="L23" t="n">
-        <v>51.31816538405334</v>
+        <v>51.31816538405335</v>
       </c>
       <c r="M23" t="n">
-        <v>57.10134694163873</v>
+        <v>57.10134694163875</v>
       </c>
       <c r="N23" t="n">
-        <v>58.02530643277471</v>
+        <v>58.02530643277473</v>
       </c>
       <c r="O23" t="n">
-        <v>54.79165146049722</v>
+        <v>54.79165146049724</v>
       </c>
       <c r="P23" t="n">
-        <v>46.76340687187617</v>
+        <v>46.76340687187619</v>
       </c>
       <c r="Q23" t="n">
-        <v>35.11737105091449</v>
+        <v>35.11737105091451</v>
       </c>
       <c r="R23" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S23" t="n">
-        <v>7.410374625344901</v>
+        <v>7.410374625344904</v>
       </c>
       <c r="T23" t="n">
-        <v>1.423539875916502</v>
+        <v>1.423539875916503</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0260155774011011</v>
+        <v>0.02601557740110111</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1739945132433314</v>
+        <v>0.1739945132433315</v>
       </c>
       <c r="H24" t="n">
-        <v>1.680420693692175</v>
+        <v>1.680420693692176</v>
       </c>
       <c r="I24" t="n">
-        <v>5.990600565614701</v>
+        <v>5.990600565614703</v>
       </c>
       <c r="J24" t="n">
-        <v>16.43866583234475</v>
+        <v>16.43866583234476</v>
       </c>
       <c r="K24" t="n">
         <v>28.09629821964796</v>
       </c>
       <c r="L24" t="n">
-        <v>37.77894025487335</v>
+        <v>37.77894025487336</v>
       </c>
       <c r="M24" t="n">
-        <v>44.0862413599441</v>
+        <v>44.08624135994412</v>
       </c>
       <c r="N24" t="n">
-        <v>45.25307298603645</v>
+        <v>45.25307298603646</v>
       </c>
       <c r="O24" t="n">
-        <v>41.39772087680263</v>
+        <v>41.39772087680264</v>
       </c>
       <c r="P24" t="n">
-        <v>33.22532069117616</v>
+        <v>33.22532069117617</v>
       </c>
       <c r="Q24" t="n">
         <v>22.21024698874526</v>
@@ -32813,10 +32813,10 @@
         <v>10.80292249768685</v>
       </c>
       <c r="S24" t="n">
-        <v>3.231871770111878</v>
+        <v>3.231871770111879</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7013199897834277</v>
+        <v>0.701319989783428</v>
       </c>
       <c r="U24" t="n">
         <v>0.01144700745021918</v>
@@ -32859,46 +32859,46 @@
         <v>0.1458711550486946</v>
       </c>
       <c r="H25" t="n">
-        <v>1.296927178523849</v>
+        <v>1.29692717852385</v>
       </c>
       <c r="I25" t="n">
-        <v>4.386743462737107</v>
+        <v>4.386743462737109</v>
       </c>
       <c r="J25" t="n">
         <v>10.31309066194271</v>
       </c>
       <c r="K25" t="n">
-        <v>16.94757601383924</v>
+        <v>16.94757601383925</v>
       </c>
       <c r="L25" t="n">
         <v>21.68706245151229</v>
       </c>
       <c r="M25" t="n">
-        <v>22.86596660458764</v>
+        <v>22.86596660458765</v>
       </c>
       <c r="N25" t="n">
-        <v>22.32226502667889</v>
+        <v>22.3222650266789</v>
       </c>
       <c r="O25" t="n">
-        <v>20.61822471542822</v>
+        <v>20.61822471542823</v>
       </c>
       <c r="P25" t="n">
         <v>17.64245315243484</v>
       </c>
       <c r="Q25" t="n">
-        <v>12.21472008321387</v>
+        <v>12.21472008321388</v>
       </c>
       <c r="R25" t="n">
-        <v>6.55889757155312</v>
+        <v>6.558897571553122</v>
       </c>
       <c r="S25" t="n">
-        <v>2.542136402075886</v>
+        <v>2.542136402075887</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6232676624807858</v>
+        <v>0.623267662480786</v>
       </c>
       <c r="U25" t="n">
-        <v>0.007956608457201532</v>
+        <v>0.007956608457201534</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>0.3251947175137639</v>
       </c>
       <c r="H26" t="n">
-        <v>3.330400400737835</v>
+        <v>3.330400400737836</v>
       </c>
       <c r="I26" t="n">
         <v>12.5370693469494</v>
@@ -32947,34 +32947,34 @@
         <v>27.60049515558385</v>
       </c>
       <c r="K26" t="n">
-        <v>41.36598754794148</v>
+        <v>41.36598754794149</v>
       </c>
       <c r="L26" t="n">
-        <v>51.31816538405334</v>
+        <v>51.31816538405335</v>
       </c>
       <c r="M26" t="n">
-        <v>57.10134694163874</v>
+        <v>57.10134694163875</v>
       </c>
       <c r="N26" t="n">
         <v>58.02530643277473</v>
       </c>
       <c r="O26" t="n">
-        <v>54.79165146049723</v>
+        <v>54.79165146049724</v>
       </c>
       <c r="P26" t="n">
-        <v>46.76340687187618</v>
+        <v>46.76340687187619</v>
       </c>
       <c r="Q26" t="n">
-        <v>35.1173710509145</v>
+        <v>35.11737105091451</v>
       </c>
       <c r="R26" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S26" t="n">
-        <v>7.410374625344903</v>
+        <v>7.410374625344904</v>
       </c>
       <c r="T26" t="n">
-        <v>1.423539875916502</v>
+        <v>1.423539875916503</v>
       </c>
       <c r="U26" t="n">
         <v>0.02601557740110111</v>
@@ -33017,22 +33017,22 @@
         <v>0.1739945132433315</v>
       </c>
       <c r="H27" t="n">
-        <v>1.680420693692175</v>
+        <v>1.680420693692176</v>
       </c>
       <c r="I27" t="n">
-        <v>5.990600565614702</v>
+        <v>5.990600565614703</v>
       </c>
       <c r="J27" t="n">
-        <v>16.43866583234475</v>
+        <v>16.43866583234476</v>
       </c>
       <c r="K27" t="n">
         <v>28.09629821964796</v>
       </c>
       <c r="L27" t="n">
-        <v>37.77894025487335</v>
+        <v>37.77894025487336</v>
       </c>
       <c r="M27" t="n">
-        <v>44.08624135994411</v>
+        <v>44.08624135994412</v>
       </c>
       <c r="N27" t="n">
         <v>45.25307298603646</v>
@@ -33050,10 +33050,10 @@
         <v>10.80292249768685</v>
       </c>
       <c r="S27" t="n">
-        <v>3.231871770111878</v>
+        <v>3.231871770111879</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7013199897834279</v>
+        <v>0.701319989783428</v>
       </c>
       <c r="U27" t="n">
         <v>0.01144700745021918</v>
@@ -33096,46 +33096,46 @@
         <v>0.1458711550486946</v>
       </c>
       <c r="H28" t="n">
-        <v>1.296927178523849</v>
+        <v>1.29692717852385</v>
       </c>
       <c r="I28" t="n">
-        <v>4.386743462737108</v>
+        <v>4.386743462737109</v>
       </c>
       <c r="J28" t="n">
         <v>10.31309066194271</v>
       </c>
       <c r="K28" t="n">
-        <v>16.94757601383924</v>
+        <v>16.94757601383925</v>
       </c>
       <c r="L28" t="n">
         <v>21.68706245151229</v>
       </c>
       <c r="M28" t="n">
-        <v>22.86596660458764</v>
+        <v>22.86596660458765</v>
       </c>
       <c r="N28" t="n">
-        <v>22.32226502667889</v>
+        <v>22.3222650266789</v>
       </c>
       <c r="O28" t="n">
-        <v>20.61822471542822</v>
+        <v>20.61822471542823</v>
       </c>
       <c r="P28" t="n">
         <v>17.64245315243484</v>
       </c>
       <c r="Q28" t="n">
-        <v>12.21472008321387</v>
+        <v>12.21472008321388</v>
       </c>
       <c r="R28" t="n">
-        <v>6.558897571553121</v>
+        <v>6.558897571553122</v>
       </c>
       <c r="S28" t="n">
-        <v>2.542136402075886</v>
+        <v>2.542136402075887</v>
       </c>
       <c r="T28" t="n">
-        <v>0.6232676624807859</v>
+        <v>0.623267662480786</v>
       </c>
       <c r="U28" t="n">
-        <v>0.007956608457201532</v>
+        <v>0.007956608457201534</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>0.3251947175137639</v>
       </c>
       <c r="H29" t="n">
-        <v>3.330400400737835</v>
+        <v>3.330400400737836</v>
       </c>
       <c r="I29" t="n">
         <v>12.5370693469494</v>
@@ -33184,34 +33184,34 @@
         <v>27.60049515558385</v>
       </c>
       <c r="K29" t="n">
-        <v>41.36598754794148</v>
+        <v>41.36598754794149</v>
       </c>
       <c r="L29" t="n">
-        <v>51.31816538405334</v>
+        <v>51.31816538405335</v>
       </c>
       <c r="M29" t="n">
-        <v>57.10134694163874</v>
+        <v>57.10134694163875</v>
       </c>
       <c r="N29" t="n">
         <v>58.02530643277473</v>
       </c>
       <c r="O29" t="n">
-        <v>54.79165146049723</v>
+        <v>54.79165146049724</v>
       </c>
       <c r="P29" t="n">
-        <v>46.76340687187618</v>
+        <v>46.76340687187619</v>
       </c>
       <c r="Q29" t="n">
-        <v>35.1173710509145</v>
+        <v>35.11737105091451</v>
       </c>
       <c r="R29" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S29" t="n">
-        <v>7.410374625344903</v>
+        <v>7.410374625344904</v>
       </c>
       <c r="T29" t="n">
-        <v>1.423539875916502</v>
+        <v>1.423539875916503</v>
       </c>
       <c r="U29" t="n">
         <v>0.02601557740110111</v>
@@ -33254,22 +33254,22 @@
         <v>0.1739945132433315</v>
       </c>
       <c r="H30" t="n">
-        <v>1.680420693692175</v>
+        <v>1.680420693692176</v>
       </c>
       <c r="I30" t="n">
-        <v>5.990600565614702</v>
+        <v>5.990600565614703</v>
       </c>
       <c r="J30" t="n">
-        <v>16.43866583234475</v>
+        <v>16.43866583234476</v>
       </c>
       <c r="K30" t="n">
         <v>28.09629821964796</v>
       </c>
       <c r="L30" t="n">
-        <v>37.77894025487335</v>
+        <v>37.77894025487336</v>
       </c>
       <c r="M30" t="n">
-        <v>44.08624135994411</v>
+        <v>44.08624135994412</v>
       </c>
       <c r="N30" t="n">
         <v>45.25307298603646</v>
@@ -33287,10 +33287,10 @@
         <v>10.80292249768685</v>
       </c>
       <c r="S30" t="n">
-        <v>3.231871770111878</v>
+        <v>3.231871770111879</v>
       </c>
       <c r="T30" t="n">
-        <v>0.7013199897834279</v>
+        <v>0.701319989783428</v>
       </c>
       <c r="U30" t="n">
         <v>0.01144700745021918</v>
@@ -33333,46 +33333,46 @@
         <v>0.1458711550486946</v>
       </c>
       <c r="H31" t="n">
-        <v>1.296927178523849</v>
+        <v>1.29692717852385</v>
       </c>
       <c r="I31" t="n">
-        <v>4.386743462737108</v>
+        <v>4.386743462737109</v>
       </c>
       <c r="J31" t="n">
         <v>10.31309066194271</v>
       </c>
       <c r="K31" t="n">
-        <v>16.94757601383924</v>
+        <v>16.94757601383925</v>
       </c>
       <c r="L31" t="n">
         <v>21.68706245151229</v>
       </c>
       <c r="M31" t="n">
-        <v>22.86596660458764</v>
+        <v>22.86596660458765</v>
       </c>
       <c r="N31" t="n">
-        <v>22.32226502667889</v>
+        <v>22.3222650266789</v>
       </c>
       <c r="O31" t="n">
-        <v>20.61822471542822</v>
+        <v>20.61822471542823</v>
       </c>
       <c r="P31" t="n">
         <v>17.64245315243484</v>
       </c>
       <c r="Q31" t="n">
-        <v>12.21472008321387</v>
+        <v>12.21472008321388</v>
       </c>
       <c r="R31" t="n">
-        <v>6.558897571553121</v>
+        <v>6.558897571553122</v>
       </c>
       <c r="S31" t="n">
-        <v>2.542136402075886</v>
+        <v>2.542136402075887</v>
       </c>
       <c r="T31" t="n">
-        <v>0.6232676624807859</v>
+        <v>0.623267662480786</v>
       </c>
       <c r="U31" t="n">
-        <v>0.007956608457201532</v>
+        <v>0.007956608457201534</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>0.3251947175137639</v>
       </c>
       <c r="H32" t="n">
-        <v>3.330400400737835</v>
+        <v>3.330400400737836</v>
       </c>
       <c r="I32" t="n">
         <v>12.5370693469494</v>
@@ -33421,34 +33421,34 @@
         <v>27.60049515558385</v>
       </c>
       <c r="K32" t="n">
-        <v>41.36598754794148</v>
+        <v>41.36598754794149</v>
       </c>
       <c r="L32" t="n">
-        <v>51.31816538405334</v>
+        <v>51.31816538405335</v>
       </c>
       <c r="M32" t="n">
-        <v>57.10134694163874</v>
+        <v>57.10134694163875</v>
       </c>
       <c r="N32" t="n">
         <v>58.02530643277473</v>
       </c>
       <c r="O32" t="n">
-        <v>54.79165146049723</v>
+        <v>54.79165146049724</v>
       </c>
       <c r="P32" t="n">
-        <v>46.76340687187618</v>
+        <v>46.76340687187619</v>
       </c>
       <c r="Q32" t="n">
-        <v>35.1173710509145</v>
+        <v>35.11737105091451</v>
       </c>
       <c r="R32" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S32" t="n">
-        <v>7.410374625344903</v>
+        <v>7.410374625344904</v>
       </c>
       <c r="T32" t="n">
-        <v>1.423539875916502</v>
+        <v>1.423539875916503</v>
       </c>
       <c r="U32" t="n">
         <v>0.02601557740110111</v>
@@ -33491,22 +33491,22 @@
         <v>0.1739945132433315</v>
       </c>
       <c r="H33" t="n">
-        <v>1.680420693692175</v>
+        <v>1.680420693692176</v>
       </c>
       <c r="I33" t="n">
-        <v>5.990600565614702</v>
+        <v>5.990600565614703</v>
       </c>
       <c r="J33" t="n">
-        <v>16.43866583234475</v>
+        <v>16.43866583234476</v>
       </c>
       <c r="K33" t="n">
         <v>28.09629821964796</v>
       </c>
       <c r="L33" t="n">
-        <v>37.77894025487335</v>
+        <v>37.77894025487336</v>
       </c>
       <c r="M33" t="n">
-        <v>44.08624135994411</v>
+        <v>44.08624135994412</v>
       </c>
       <c r="N33" t="n">
         <v>45.25307298603646</v>
@@ -33524,10 +33524,10 @@
         <v>10.80292249768685</v>
       </c>
       <c r="S33" t="n">
-        <v>3.231871770111878</v>
+        <v>3.231871770111879</v>
       </c>
       <c r="T33" t="n">
-        <v>0.7013199897834279</v>
+        <v>0.701319989783428</v>
       </c>
       <c r="U33" t="n">
         <v>0.01144700745021918</v>
@@ -33570,46 +33570,46 @@
         <v>0.1458711550486946</v>
       </c>
       <c r="H34" t="n">
-        <v>1.296927178523849</v>
+        <v>1.29692717852385</v>
       </c>
       <c r="I34" t="n">
-        <v>4.386743462737108</v>
+        <v>4.386743462737109</v>
       </c>
       <c r="J34" t="n">
         <v>10.31309066194271</v>
       </c>
       <c r="K34" t="n">
-        <v>16.94757601383924</v>
+        <v>16.94757601383925</v>
       </c>
       <c r="L34" t="n">
         <v>21.68706245151229</v>
       </c>
       <c r="M34" t="n">
-        <v>22.86596660458764</v>
+        <v>22.86596660458765</v>
       </c>
       <c r="N34" t="n">
-        <v>22.32226502667889</v>
+        <v>22.3222650266789</v>
       </c>
       <c r="O34" t="n">
-        <v>20.61822471542822</v>
+        <v>20.61822471542823</v>
       </c>
       <c r="P34" t="n">
         <v>17.64245315243484</v>
       </c>
       <c r="Q34" t="n">
-        <v>12.21472008321387</v>
+        <v>12.21472008321388</v>
       </c>
       <c r="R34" t="n">
-        <v>6.558897571553121</v>
+        <v>6.558897571553122</v>
       </c>
       <c r="S34" t="n">
-        <v>2.542136402075886</v>
+        <v>2.542136402075887</v>
       </c>
       <c r="T34" t="n">
-        <v>0.6232676624807859</v>
+        <v>0.623267662480786</v>
       </c>
       <c r="U34" t="n">
-        <v>0.007956608457201532</v>
+        <v>0.007956608457201534</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>0.3251947175137639</v>
       </c>
       <c r="H35" t="n">
-        <v>3.330400400737835</v>
+        <v>3.330400400737836</v>
       </c>
       <c r="I35" t="n">
         <v>12.5370693469494</v>
@@ -33658,34 +33658,34 @@
         <v>27.60049515558385</v>
       </c>
       <c r="K35" t="n">
-        <v>41.36598754794148</v>
+        <v>41.36598754794149</v>
       </c>
       <c r="L35" t="n">
-        <v>51.31816538405334</v>
+        <v>51.31816538405335</v>
       </c>
       <c r="M35" t="n">
-        <v>57.10134694163874</v>
+        <v>57.10134694163875</v>
       </c>
       <c r="N35" t="n">
         <v>58.02530643277473</v>
       </c>
       <c r="O35" t="n">
-        <v>54.79165146049723</v>
+        <v>54.79165146049724</v>
       </c>
       <c r="P35" t="n">
-        <v>46.76340687187618</v>
+        <v>46.76340687187619</v>
       </c>
       <c r="Q35" t="n">
-        <v>35.1173710509145</v>
+        <v>35.11737105091451</v>
       </c>
       <c r="R35" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S35" t="n">
-        <v>7.410374625344903</v>
+        <v>7.410374625344904</v>
       </c>
       <c r="T35" t="n">
-        <v>1.423539875916502</v>
+        <v>1.423539875916503</v>
       </c>
       <c r="U35" t="n">
         <v>0.02601557740110111</v>
@@ -33728,22 +33728,22 @@
         <v>0.1739945132433315</v>
       </c>
       <c r="H36" t="n">
-        <v>1.680420693692175</v>
+        <v>1.680420693692176</v>
       </c>
       <c r="I36" t="n">
-        <v>5.990600565614702</v>
+        <v>5.990600565614703</v>
       </c>
       <c r="J36" t="n">
-        <v>16.43866583234475</v>
+        <v>16.43866583234476</v>
       </c>
       <c r="K36" t="n">
         <v>28.09629821964796</v>
       </c>
       <c r="L36" t="n">
-        <v>37.77894025487335</v>
+        <v>37.77894025487336</v>
       </c>
       <c r="M36" t="n">
-        <v>44.08624135994411</v>
+        <v>44.08624135994412</v>
       </c>
       <c r="N36" t="n">
         <v>45.25307298603646</v>
@@ -33761,10 +33761,10 @@
         <v>10.80292249768685</v>
       </c>
       <c r="S36" t="n">
-        <v>3.231871770111878</v>
+        <v>3.231871770111879</v>
       </c>
       <c r="T36" t="n">
-        <v>0.7013199897834279</v>
+        <v>0.701319989783428</v>
       </c>
       <c r="U36" t="n">
         <v>0.01144700745021918</v>
@@ -33807,46 +33807,46 @@
         <v>0.1458711550486946</v>
       </c>
       <c r="H37" t="n">
-        <v>1.296927178523849</v>
+        <v>1.29692717852385</v>
       </c>
       <c r="I37" t="n">
-        <v>4.386743462737108</v>
+        <v>4.386743462737109</v>
       </c>
       <c r="J37" t="n">
         <v>10.31309066194271</v>
       </c>
       <c r="K37" t="n">
-        <v>16.94757601383924</v>
+        <v>16.94757601383925</v>
       </c>
       <c r="L37" t="n">
         <v>21.68706245151229</v>
       </c>
       <c r="M37" t="n">
-        <v>22.86596660458764</v>
+        <v>22.86596660458765</v>
       </c>
       <c r="N37" t="n">
-        <v>22.32226502667889</v>
+        <v>22.3222650266789</v>
       </c>
       <c r="O37" t="n">
-        <v>20.61822471542822</v>
+        <v>20.61822471542823</v>
       </c>
       <c r="P37" t="n">
         <v>17.64245315243484</v>
       </c>
       <c r="Q37" t="n">
-        <v>12.21472008321387</v>
+        <v>12.21472008321388</v>
       </c>
       <c r="R37" t="n">
-        <v>6.558897571553121</v>
+        <v>6.558897571553122</v>
       </c>
       <c r="S37" t="n">
-        <v>2.542136402075886</v>
+        <v>2.542136402075887</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6232676624807859</v>
+        <v>0.623267662480786</v>
       </c>
       <c r="U37" t="n">
-        <v>0.007956608457201532</v>
+        <v>0.007956608457201534</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>0.3251947175137639</v>
       </c>
       <c r="H38" t="n">
-        <v>3.330400400737835</v>
+        <v>3.330400400737836</v>
       </c>
       <c r="I38" t="n">
         <v>12.5370693469494</v>
@@ -33895,34 +33895,34 @@
         <v>27.60049515558385</v>
       </c>
       <c r="K38" t="n">
-        <v>41.36598754794148</v>
+        <v>41.36598754794149</v>
       </c>
       <c r="L38" t="n">
-        <v>51.31816538405334</v>
+        <v>51.31816538405335</v>
       </c>
       <c r="M38" t="n">
-        <v>57.10134694163874</v>
+        <v>57.10134694163875</v>
       </c>
       <c r="N38" t="n">
         <v>58.02530643277473</v>
       </c>
       <c r="O38" t="n">
-        <v>54.79165146049723</v>
+        <v>54.79165146049724</v>
       </c>
       <c r="P38" t="n">
-        <v>46.76340687187618</v>
+        <v>46.76340687187619</v>
       </c>
       <c r="Q38" t="n">
-        <v>35.1173710509145</v>
+        <v>35.11737105091451</v>
       </c>
       <c r="R38" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S38" t="n">
-        <v>7.410374625344903</v>
+        <v>7.410374625344904</v>
       </c>
       <c r="T38" t="n">
-        <v>1.423539875916502</v>
+        <v>1.423539875916503</v>
       </c>
       <c r="U38" t="n">
         <v>0.02601557740110111</v>
@@ -33965,22 +33965,22 @@
         <v>0.1739945132433315</v>
       </c>
       <c r="H39" t="n">
-        <v>1.680420693692175</v>
+        <v>1.680420693692176</v>
       </c>
       <c r="I39" t="n">
-        <v>5.990600565614702</v>
+        <v>5.990600565614703</v>
       </c>
       <c r="J39" t="n">
-        <v>16.43866583234475</v>
+        <v>16.43866583234476</v>
       </c>
       <c r="K39" t="n">
         <v>28.09629821964796</v>
       </c>
       <c r="L39" t="n">
-        <v>37.77894025487335</v>
+        <v>37.77894025487336</v>
       </c>
       <c r="M39" t="n">
-        <v>44.08624135994411</v>
+        <v>44.08624135994412</v>
       </c>
       <c r="N39" t="n">
         <v>45.25307298603646</v>
@@ -33998,10 +33998,10 @@
         <v>10.80292249768685</v>
       </c>
       <c r="S39" t="n">
-        <v>3.231871770111878</v>
+        <v>3.231871770111879</v>
       </c>
       <c r="T39" t="n">
-        <v>0.7013199897834279</v>
+        <v>0.701319989783428</v>
       </c>
       <c r="U39" t="n">
         <v>0.01144700745021918</v>
@@ -34044,46 +34044,46 @@
         <v>0.1458711550486946</v>
       </c>
       <c r="H40" t="n">
-        <v>1.296927178523849</v>
+        <v>1.29692717852385</v>
       </c>
       <c r="I40" t="n">
-        <v>4.386743462737108</v>
+        <v>4.386743462737109</v>
       </c>
       <c r="J40" t="n">
         <v>10.31309066194271</v>
       </c>
       <c r="K40" t="n">
-        <v>16.94757601383924</v>
+        <v>16.94757601383925</v>
       </c>
       <c r="L40" t="n">
         <v>21.68706245151229</v>
       </c>
       <c r="M40" t="n">
-        <v>22.86596660458764</v>
+        <v>22.86596660458765</v>
       </c>
       <c r="N40" t="n">
-        <v>22.32226502667889</v>
+        <v>22.3222650266789</v>
       </c>
       <c r="O40" t="n">
-        <v>20.61822471542822</v>
+        <v>20.61822471542823</v>
       </c>
       <c r="P40" t="n">
         <v>17.64245315243484</v>
       </c>
       <c r="Q40" t="n">
-        <v>12.21472008321387</v>
+        <v>12.21472008321388</v>
       </c>
       <c r="R40" t="n">
-        <v>6.558897571553121</v>
+        <v>6.558897571553122</v>
       </c>
       <c r="S40" t="n">
-        <v>2.542136402075886</v>
+        <v>2.542136402075887</v>
       </c>
       <c r="T40" t="n">
-        <v>0.6232676624807859</v>
+        <v>0.623267662480786</v>
       </c>
       <c r="U40" t="n">
-        <v>0.007956608457201532</v>
+        <v>0.007956608457201534</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>0.3251947175137639</v>
       </c>
       <c r="H41" t="n">
-        <v>3.330400400737835</v>
+        <v>3.330400400737836</v>
       </c>
       <c r="I41" t="n">
         <v>12.5370693469494</v>
@@ -34132,34 +34132,34 @@
         <v>27.60049515558385</v>
       </c>
       <c r="K41" t="n">
-        <v>41.36598754794148</v>
+        <v>41.36598754794149</v>
       </c>
       <c r="L41" t="n">
-        <v>51.31816538405334</v>
+        <v>51.31816538405335</v>
       </c>
       <c r="M41" t="n">
-        <v>57.10134694163874</v>
+        <v>57.10134694163875</v>
       </c>
       <c r="N41" t="n">
         <v>58.02530643277473</v>
       </c>
       <c r="O41" t="n">
-        <v>54.79165146049723</v>
+        <v>54.79165146049724</v>
       </c>
       <c r="P41" t="n">
-        <v>46.76340687187618</v>
+        <v>46.76340687187619</v>
       </c>
       <c r="Q41" t="n">
-        <v>35.1173710509145</v>
+        <v>35.11737105091451</v>
       </c>
       <c r="R41" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S41" t="n">
-        <v>7.410374625344903</v>
+        <v>7.410374625344904</v>
       </c>
       <c r="T41" t="n">
-        <v>1.423539875916502</v>
+        <v>1.423539875916503</v>
       </c>
       <c r="U41" t="n">
         <v>0.02601557740110111</v>
@@ -34202,22 +34202,22 @@
         <v>0.1739945132433315</v>
       </c>
       <c r="H42" t="n">
-        <v>1.680420693692175</v>
+        <v>1.680420693692176</v>
       </c>
       <c r="I42" t="n">
-        <v>5.990600565614702</v>
+        <v>5.990600565614703</v>
       </c>
       <c r="J42" t="n">
-        <v>16.43866583234475</v>
+        <v>16.43866583234476</v>
       </c>
       <c r="K42" t="n">
         <v>28.09629821964796</v>
       </c>
       <c r="L42" t="n">
-        <v>37.77894025487335</v>
+        <v>37.77894025487336</v>
       </c>
       <c r="M42" t="n">
-        <v>44.08624135994411</v>
+        <v>44.08624135994412</v>
       </c>
       <c r="N42" t="n">
         <v>45.25307298603646</v>
@@ -34235,10 +34235,10 @@
         <v>10.80292249768685</v>
       </c>
       <c r="S42" t="n">
-        <v>3.231871770111878</v>
+        <v>3.231871770111879</v>
       </c>
       <c r="T42" t="n">
-        <v>0.7013199897834279</v>
+        <v>0.701319989783428</v>
       </c>
       <c r="U42" t="n">
         <v>0.01144700745021918</v>
@@ -34281,46 +34281,46 @@
         <v>0.1458711550486946</v>
       </c>
       <c r="H43" t="n">
-        <v>1.296927178523849</v>
+        <v>1.29692717852385</v>
       </c>
       <c r="I43" t="n">
-        <v>4.386743462737108</v>
+        <v>4.386743462737109</v>
       </c>
       <c r="J43" t="n">
         <v>10.31309066194271</v>
       </c>
       <c r="K43" t="n">
-        <v>16.94757601383924</v>
+        <v>16.94757601383925</v>
       </c>
       <c r="L43" t="n">
         <v>21.68706245151229</v>
       </c>
       <c r="M43" t="n">
-        <v>22.86596660458764</v>
+        <v>22.86596660458765</v>
       </c>
       <c r="N43" t="n">
-        <v>22.32226502667889</v>
+        <v>22.3222650266789</v>
       </c>
       <c r="O43" t="n">
-        <v>20.61822471542822</v>
+        <v>20.61822471542823</v>
       </c>
       <c r="P43" t="n">
         <v>17.64245315243484</v>
       </c>
       <c r="Q43" t="n">
-        <v>12.21472008321387</v>
+        <v>12.21472008321388</v>
       </c>
       <c r="R43" t="n">
-        <v>6.558897571553121</v>
+        <v>6.558897571553122</v>
       </c>
       <c r="S43" t="n">
-        <v>2.542136402075886</v>
+        <v>2.542136402075887</v>
       </c>
       <c r="T43" t="n">
-        <v>0.6232676624807859</v>
+        <v>0.623267662480786</v>
       </c>
       <c r="U43" t="n">
-        <v>0.007956608457201532</v>
+        <v>0.007956608457201534</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>0.3251947175137639</v>
       </c>
       <c r="H44" t="n">
-        <v>3.330400400737835</v>
+        <v>3.330400400737836</v>
       </c>
       <c r="I44" t="n">
         <v>12.5370693469494</v>
@@ -34369,34 +34369,34 @@
         <v>27.60049515558385</v>
       </c>
       <c r="K44" t="n">
-        <v>41.36598754794148</v>
+        <v>41.36598754794149</v>
       </c>
       <c r="L44" t="n">
-        <v>51.31816538405334</v>
+        <v>51.31816538405335</v>
       </c>
       <c r="M44" t="n">
-        <v>57.10134694163874</v>
+        <v>57.10134694163875</v>
       </c>
       <c r="N44" t="n">
         <v>58.02530643277473</v>
       </c>
       <c r="O44" t="n">
-        <v>54.79165146049723</v>
+        <v>54.79165146049724</v>
       </c>
       <c r="P44" t="n">
-        <v>46.76340687187618</v>
+        <v>46.76340687187619</v>
       </c>
       <c r="Q44" t="n">
-        <v>35.1173710509145</v>
+        <v>35.11737105091451</v>
       </c>
       <c r="R44" t="n">
         <v>20.42751267402399</v>
       </c>
       <c r="S44" t="n">
-        <v>7.410374625344903</v>
+        <v>7.410374625344904</v>
       </c>
       <c r="T44" t="n">
-        <v>1.423539875916502</v>
+        <v>1.423539875916503</v>
       </c>
       <c r="U44" t="n">
         <v>0.02601557740110111</v>
@@ -34439,22 +34439,22 @@
         <v>0.1739945132433315</v>
       </c>
       <c r="H45" t="n">
-        <v>1.680420693692175</v>
+        <v>1.680420693692176</v>
       </c>
       <c r="I45" t="n">
-        <v>5.990600565614702</v>
+        <v>5.990600565614703</v>
       </c>
       <c r="J45" t="n">
-        <v>16.43866583234475</v>
+        <v>16.43866583234476</v>
       </c>
       <c r="K45" t="n">
         <v>28.09629821964796</v>
       </c>
       <c r="L45" t="n">
-        <v>37.77894025487335</v>
+        <v>37.77894025487336</v>
       </c>
       <c r="M45" t="n">
-        <v>44.08624135994411</v>
+        <v>44.08624135994412</v>
       </c>
       <c r="N45" t="n">
         <v>45.25307298603646</v>
@@ -34472,10 +34472,10 @@
         <v>10.80292249768685</v>
       </c>
       <c r="S45" t="n">
-        <v>3.231871770111878</v>
+        <v>3.231871770111879</v>
       </c>
       <c r="T45" t="n">
-        <v>0.7013199897834279</v>
+        <v>0.701319989783428</v>
       </c>
       <c r="U45" t="n">
         <v>0.01144700745021918</v>
@@ -34518,46 +34518,46 @@
         <v>0.1458711550486946</v>
       </c>
       <c r="H46" t="n">
-        <v>1.296927178523849</v>
+        <v>1.29692717852385</v>
       </c>
       <c r="I46" t="n">
-        <v>4.386743462737108</v>
+        <v>4.386743462737109</v>
       </c>
       <c r="J46" t="n">
         <v>10.31309066194271</v>
       </c>
       <c r="K46" t="n">
-        <v>16.94757601383924</v>
+        <v>16.94757601383925</v>
       </c>
       <c r="L46" t="n">
         <v>21.68706245151229</v>
       </c>
       <c r="M46" t="n">
-        <v>22.86596660458764</v>
+        <v>22.86596660458765</v>
       </c>
       <c r="N46" t="n">
-        <v>22.32226502667889</v>
+        <v>22.3222650266789</v>
       </c>
       <c r="O46" t="n">
-        <v>20.61822471542822</v>
+        <v>20.61822471542823</v>
       </c>
       <c r="P46" t="n">
         <v>17.64245315243484</v>
       </c>
       <c r="Q46" t="n">
-        <v>12.21472008321387</v>
+        <v>12.21472008321388</v>
       </c>
       <c r="R46" t="n">
-        <v>6.558897571553121</v>
+        <v>6.558897571553122</v>
       </c>
       <c r="S46" t="n">
-        <v>2.542136402075886</v>
+        <v>2.542136402075887</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6232676624807859</v>
+        <v>0.623267662480786</v>
       </c>
       <c r="U46" t="n">
-        <v>0.007956608457201532</v>
+        <v>0.007956608457201534</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>15.65120580097132</v>
+        <v>15.65120580097133</v>
       </c>
       <c r="K17" t="n">
-        <v>12.79499871353189</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>55.82857640775175</v>
+        <v>12.79499871353188</v>
       </c>
       <c r="N17" t="n">
-        <v>55.82857640775175</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>55.82857640775175</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="Q17" t="n">
-        <v>25.12667183636969</v>
+        <v>25.1266718363697</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15.69207450608689</v>
+        <v>15.6920745060869</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82857640775175</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>55.82857640775175</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="M18" t="n">
         <v>37.88080184478601</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="O18" t="n">
-        <v>55.82857640775175</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36048,16 +36048,16 @@
         <v>49.27708771182843</v>
       </c>
       <c r="M19" t="n">
-        <v>55.82857640775175</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="N19" t="n">
-        <v>55.82857640775175</v>
+        <v>55.82857640775178</v>
       </c>
       <c r="O19" t="n">
-        <v>45.20335262946789</v>
+        <v>45.2033526294679</v>
       </c>
       <c r="P19" t="n">
-        <v>14.92101241732832</v>
+        <v>14.92101241732833</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>15.65120580097132</v>
+        <v>15.65120580097133</v>
       </c>
       <c r="K20" t="n">
         <v>145.4215490741257</v>
@@ -36130,16 +36130,16 @@
         <v>276.2686472071985</v>
       </c>
       <c r="N20" t="n">
-        <v>265.9591672481679</v>
+        <v>265.959167248168</v>
       </c>
       <c r="O20" t="n">
-        <v>205.4936213015558</v>
+        <v>205.4936213015559</v>
       </c>
       <c r="P20" t="n">
         <v>137.3291192880893</v>
       </c>
       <c r="Q20" t="n">
-        <v>25.12667183636995</v>
+        <v>25.1266718363697</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>15.6920745060869</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>135.1985725370705</v>
+        <v>27.20073739241074</v>
       </c>
       <c r="M21" t="n">
         <v>329.4434482790268</v>
@@ -36218,7 +36218,7 @@
         <v>217.7136819167831</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>92.30576063857285</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,16 +36285,16 @@
         <v>49.27708771182843</v>
       </c>
       <c r="M22" t="n">
-        <v>62.44984356642823</v>
+        <v>62.44984356642824</v>
       </c>
       <c r="N22" t="n">
         <v>66.45443740590748</v>
       </c>
       <c r="O22" t="n">
-        <v>45.20335262946789</v>
+        <v>45.2033526294679</v>
       </c>
       <c r="P22" t="n">
-        <v>14.92101241732832</v>
+        <v>14.92101241732833</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>15.65120580097132</v>
+        <v>15.65120580097133</v>
       </c>
       <c r="K23" t="n">
         <v>145.4215490741258</v>
@@ -36367,16 +36367,16 @@
         <v>276.2686472071985</v>
       </c>
       <c r="N23" t="n">
-        <v>265.9591672481679</v>
+        <v>265.959167248168</v>
       </c>
       <c r="O23" t="n">
-        <v>205.4936213015558</v>
+        <v>205.4936213015559</v>
       </c>
       <c r="P23" t="n">
         <v>137.3291192880893</v>
       </c>
       <c r="Q23" t="n">
-        <v>25.12667183636969</v>
+        <v>25.1266718363697</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>15.69207450608689</v>
+        <v>15.6920745060869</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>154.7200962578676</v>
       </c>
       <c r="L24" t="n">
         <v>270.0649057784584</v>
@@ -36446,16 +36446,16 @@
         <v>329.4434482790268</v>
       </c>
       <c r="N24" t="n">
-        <v>329.4434482790268</v>
+        <v>316.8287399827723</v>
       </c>
       <c r="O24" t="n">
-        <v>267.5133092398235</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>217.7136819167831</v>
       </c>
       <c r="Q24" t="n">
-        <v>92.30576063857283</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,16 +36522,16 @@
         <v>49.27708771182843</v>
       </c>
       <c r="M25" t="n">
-        <v>62.44984356642823</v>
+        <v>62.44984356642824</v>
       </c>
       <c r="N25" t="n">
         <v>66.45443740590748</v>
       </c>
       <c r="O25" t="n">
-        <v>45.20335262946789</v>
+        <v>45.2033526294679</v>
       </c>
       <c r="P25" t="n">
-        <v>14.92101241732832</v>
+        <v>14.92101241732833</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>137.3291192880893</v>
       </c>
       <c r="Q26" t="n">
-        <v>25.12667183636973</v>
+        <v>25.12667183636995</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>15.6920745060869</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>154.7200962578676</v>
       </c>
       <c r="L27" t="n">
-        <v>42.89281189849776</v>
+        <v>270.0649057784584</v>
       </c>
       <c r="M27" t="n">
         <v>329.4434482790268</v>
@@ -36686,10 +36686,10 @@
         <v>329.4434482790268</v>
       </c>
       <c r="O27" t="n">
-        <v>292.6637957090877</v>
+        <v>112.7932129819558</v>
       </c>
       <c r="P27" t="n">
-        <v>217.7136819167831</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>92.30576063857285</v>
@@ -36759,7 +36759,7 @@
         <v>49.27708771182843</v>
       </c>
       <c r="M28" t="n">
-        <v>62.44984356642823</v>
+        <v>62.44984356642824</v>
       </c>
       <c r="N28" t="n">
         <v>66.45443740590748</v>
@@ -36841,7 +36841,7 @@
         <v>276.2686472071985</v>
       </c>
       <c r="N29" t="n">
-        <v>265.9591672481682</v>
+        <v>265.959167248168</v>
       </c>
       <c r="O29" t="n">
         <v>205.4936213015559</v>
@@ -36911,10 +36911,10 @@
         <v>15.6920745060869</v>
       </c>
       <c r="K30" t="n">
-        <v>67.15527416930846</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>270.0649057784584</v>
+        <v>27.20073739241074</v>
       </c>
       <c r="M30" t="n">
         <v>329.4434482790268</v>
@@ -36926,10 +36926,10 @@
         <v>292.6637957090877</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>217.7136819167831</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>92.30576063857285</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>49.27708771182843</v>
       </c>
       <c r="M31" t="n">
-        <v>62.44984356642823</v>
+        <v>62.44984356642824</v>
       </c>
       <c r="N31" t="n">
         <v>66.45443740590748</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>260.606493815281</v>
+        <v>270.0649057784584</v>
       </c>
       <c r="M33" t="n">
-        <v>329.4434482790268</v>
+        <v>194.5771150376391</v>
       </c>
       <c r="N33" t="n">
         <v>329.4434482790268</v>
@@ -37163,10 +37163,10 @@
         <v>292.6637957090877</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>217.7136819167831</v>
       </c>
       <c r="Q33" t="n">
-        <v>92.30576063857285</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>49.27708771182843</v>
       </c>
       <c r="M34" t="n">
-        <v>62.44984356642823</v>
+        <v>62.44984356642824</v>
       </c>
       <c r="N34" t="n">
         <v>66.45443740590748</v>
@@ -37306,7 +37306,7 @@
         <v>15.65120580097133</v>
       </c>
       <c r="K35" t="n">
-        <v>145.4215490741258</v>
+        <v>145.4215490741257</v>
       </c>
       <c r="L35" t="n">
         <v>233.2129649645165</v>
@@ -37324,7 +37324,7 @@
         <v>137.3291192880893</v>
       </c>
       <c r="Q35" t="n">
-        <v>25.1266718363697</v>
+        <v>25.12667183636995</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>15.6920745060869</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>154.7200962578676</v>
       </c>
       <c r="L36" t="n">
-        <v>27.20073739241086</v>
+        <v>270.0649057784584</v>
       </c>
       <c r="M36" t="n">
         <v>329.4434482790268</v>
@@ -37397,10 +37397,10 @@
         <v>329.4434482790268</v>
       </c>
       <c r="O36" t="n">
-        <v>292.6637957090877</v>
+        <v>112.7932129819558</v>
       </c>
       <c r="P36" t="n">
-        <v>217.7136819167831</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>92.30576063857285</v>
@@ -37470,7 +37470,7 @@
         <v>49.27708771182843</v>
       </c>
       <c r="M37" t="n">
-        <v>62.44984356642823</v>
+        <v>62.44984356642824</v>
       </c>
       <c r="N37" t="n">
         <v>66.45443740590748</v>
@@ -37543,7 +37543,7 @@
         <v>15.65120580097133</v>
       </c>
       <c r="K38" t="n">
-        <v>145.4215490741258</v>
+        <v>145.4215490741257</v>
       </c>
       <c r="L38" t="n">
         <v>233.2129649645165</v>
@@ -37561,7 +37561,7 @@
         <v>137.3291192880893</v>
       </c>
       <c r="Q38" t="n">
-        <v>25.1266718363697</v>
+        <v>25.12667183636995</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>15.6920745060869</v>
       </c>
       <c r="K39" t="n">
-        <v>82.84734867539534</v>
+        <v>154.7200962578676</v>
       </c>
       <c r="L39" t="n">
-        <v>270.0649057784584</v>
+        <v>201.92408941357</v>
       </c>
       <c r="M39" t="n">
-        <v>329.4434482790268</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>329.4434482790268</v>
@@ -37637,10 +37637,10 @@
         <v>292.6637957090877</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>217.7136819167831</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>92.30576063857285</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>49.27708771182843</v>
       </c>
       <c r="M40" t="n">
-        <v>62.44984356642823</v>
+        <v>62.44984356642824</v>
       </c>
       <c r="N40" t="n">
         <v>66.45443740590748</v>
@@ -37780,16 +37780,16 @@
         <v>15.65120580097133</v>
       </c>
       <c r="K41" t="n">
-        <v>145.4215490741257</v>
+        <v>64.34583812401041</v>
       </c>
       <c r="L41" t="n">
         <v>233.2129649645165</v>
       </c>
       <c r="M41" t="n">
-        <v>273.614871871275</v>
+        <v>273.6148718712751</v>
       </c>
       <c r="N41" t="n">
-        <v>184.8834562980526</v>
+        <v>265.959167248168</v>
       </c>
       <c r="O41" t="n">
         <v>205.4936213015559</v>
@@ -37862,22 +37862,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>270.0649057784584</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>32.70393520298819</v>
+        <v>273.6148718712751</v>
       </c>
       <c r="N42" t="n">
-        <v>273.614871871275</v>
+        <v>273.6148718712751</v>
       </c>
       <c r="O42" t="n">
-        <v>273.614871871275</v>
+        <v>273.6148718712751</v>
       </c>
       <c r="P42" t="n">
         <v>217.7136819167831</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>29.15396911017166</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>49.27708771182843</v>
       </c>
       <c r="M43" t="n">
-        <v>62.44984356642823</v>
+        <v>62.44984356642824</v>
       </c>
       <c r="N43" t="n">
         <v>66.45443740590748</v>
